--- a/Projects/231009_LDW/results/Queries_231009_LDW.xlsx
+++ b/Projects/231009_LDW/results/Queries_231009_LDW.xlsx
@@ -547,4082 +547,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7448902949670039</v>
+        <v>0.3532092703115662</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5513517735396251</v>
+        <v>0.9947290995477198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4723776419969085</v>
+        <v>0.04764685310207477</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5165966849087493</v>
+        <v>0.5335769530074135</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3606776068935019</v>
+        <v>0.08875847876106488</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5450442141192789</v>
+        <v>0.1507826780524457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7621004652464265</v>
+        <v>0.1112414321529529</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001452127029621164</v>
+        <v>0.02120198352306512</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01522822337208707</v>
+        <v>0.0001272457351849579</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001381469520915782</v>
+        <v>0.002860282609332731</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3358118940347176</v>
+        <v>0.7062418634594343</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9677155258102126</v>
+        <v>0.9278945460977027</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00186825217260882</v>
+        <v>0.3503041914718861</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06170643046650415</v>
+        <v>0.885603091420724</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1467466011194113</v>
+        <v>0.01817226308544813</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06507315759561227</v>
+        <v>0.2062870565325372</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7087144989465388</v>
+        <v>0.9282488174755336</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001653956132208052</v>
+        <v>0.001697357839586703</v>
       </c>
       <c r="S2" t="n">
-        <v>83.68381168051195</v>
+        <v>86.33167388586992</v>
       </c>
       <c r="T2" t="n">
-        <v>78.01205722984017</v>
+        <v>78.62572305814773</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1045598772566449</v>
+        <v>0.1048048044513132</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.01933855602087803</v>
+        <v>-0.03129865567117013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6733293609030518</v>
+        <v>0.9242157267139819</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5933926869544296</v>
+        <v>0.9400591124219733</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3955753293378095</v>
+        <v>0.1374333886075845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9620940418044557</v>
+        <v>0.1761235246910772</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7455152788903452</v>
+        <v>0.2664389828696706</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4080612031055024</v>
+        <v>0.1701760610343823</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5356610548826759</v>
+        <v>0.06789279092639361</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3927902386695898</v>
+        <v>0.003847823662258248</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6828023007066196</v>
+        <v>0.0005731420857118272</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08106316343568362</v>
+        <v>0.0004145035331141831</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6030966974222192</v>
+        <v>0.6988631318512337</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1352620833753594</v>
+        <v>0.9295531770759737</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6880550452222156</v>
+        <v>0.1481130195790611</v>
       </c>
       <c r="N3" t="n">
-        <v>0.667614361343523</v>
+        <v>0.9010436543662755</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09836408502098441</v>
+        <v>0.162743288761912</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9154746208185405</v>
+        <v>0.3999869190359195</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5274207733756715</v>
+        <v>0.8875774184792032</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00211236461354204</v>
+        <v>0.001587892498196914</v>
       </c>
       <c r="S3" t="n">
-        <v>93.35361771251023</v>
+        <v>85.48569713650005</v>
       </c>
       <c r="T3" t="n">
-        <v>84.33839393872164</v>
+        <v>78.34600052307766</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1509929040702154</v>
+        <v>0.1040979672421977</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.07319334160359728</v>
+        <v>-0.01019866684381864</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01793900659443165</v>
+        <v>0.9979593047570945</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7089075662073265</v>
+        <v>0.9974531766002956</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6279420055992364</v>
+        <v>0.000221539011798903</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9829426531751363</v>
+        <v>0.002939780812567516</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7458308901728016</v>
+        <v>0.7673061598808699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4158307367959612</v>
+        <v>0.1596477616797689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3680691342408859</v>
+        <v>0.02375537646496786</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8323144963512031</v>
+        <v>0.001692554500327125</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9587253538594646</v>
+        <v>6.508769010226713e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6324751151155149</v>
+        <v>0.002918507348647891</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6732479333972138</v>
+        <v>0.7066343881068411</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7700878660971645</v>
+        <v>0.7938197665010562</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6943266832129777</v>
+        <v>0.4310091420524568</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5418641961856744</v>
+        <v>0.8762615489882729</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2713508040934327</v>
+        <v>0.02554742975887429</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9265999875141006</v>
+        <v>0.04040802863078556</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3726582822375836</v>
+        <v>0.837179506758751</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002475707633844973</v>
+        <v>0.001524297606647456</v>
       </c>
       <c r="S4" t="n">
-        <v>98.50333457246474</v>
+        <v>87.9859314160902</v>
       </c>
       <c r="T4" t="n">
-        <v>90.09123576151129</v>
+        <v>79.03895023818349</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2199948954620053</v>
+        <v>0.1040921656633008</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.06259914345507699</v>
+        <v>0.008318452205336987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9974585265450314</v>
+        <v>0.3572171342453217</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5302041026352703</v>
+        <v>0.9735766133870556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09471723648252661</v>
+        <v>0.09690823261881173</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03255329089405404</v>
+        <v>0.1820557474889171</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8145264922167479</v>
+        <v>0.09008979461325434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4230738775947298</v>
+        <v>0.2374836774698273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3554572755609788</v>
+        <v>0.02551435491374773</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5017097561395869</v>
+        <v>0.0004296511390126187</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8210504067688326</v>
+        <v>0.0001255362337662836</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01088601895641506</v>
+        <v>0.002735787538112171</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8750669690257652</v>
+        <v>0.6689859131182814</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1152310420651951</v>
+        <v>0.9073393144578134</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6818479767938902</v>
+        <v>0.001866930680393564</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6554181215082047</v>
+        <v>0.8699978126024731</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03523279746572255</v>
+        <v>0.01861507506209239</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02947778953370517</v>
+        <v>0.1417058325939608</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5344707744789892</v>
+        <v>0.8610566619013812</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001742013343157223</v>
+        <v>0.00165673322228803</v>
       </c>
       <c r="S5" t="n">
-        <v>94.03593520700582</v>
+        <v>84.17890682520466</v>
       </c>
       <c r="T5" t="n">
-        <v>84.68597862968724</v>
+        <v>78.15993411277378</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1583220706813631</v>
+        <v>0.1040417586641763</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.05790430248561067</v>
+        <v>-0.0230916606495395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1555968232486833</v>
+        <v>0.9487172342279846</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7175025091267475</v>
+        <v>0.9889536985263945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02590785523258527</v>
+        <v>0.04764153130193902</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8084976231862615</v>
+        <v>0.03112124312858412</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7306533275752644</v>
+        <v>0.7466196063570429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4734573851598525</v>
+        <v>0.1423636446667076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3527904305276688</v>
+        <v>0.02286671850995988</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8319155041735051</v>
+        <v>0.003179106164312127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9861664922683437</v>
+        <v>0.000160027952816903</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8376712436689013</v>
+        <v>0.004810663817824082</v>
       </c>
       <c r="K6" t="n">
-        <v>0.569163755007118</v>
+        <v>0.7012281882530487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7936505344769906</v>
+        <v>0.9301084414131198</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6967430865945705</v>
+        <v>0.3720425726358448</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6571742087416488</v>
+        <v>0.6595837734575848</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03533027864606048</v>
+        <v>0.01674049637826837</v>
       </c>
       <c r="P6" t="n">
-        <v>0.005283827961954465</v>
+        <v>0.4008218778697492</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3588701856409555</v>
+        <v>0.8518838900732799</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002243770079249382</v>
+        <v>0.001536214951781176</v>
       </c>
       <c r="S6" t="n">
-        <v>99.90496235361087</v>
+        <v>86.78041007037658</v>
       </c>
       <c r="T6" t="n">
-        <v>91.21835716499481</v>
+        <v>78.81597204655955</v>
       </c>
       <c r="U6" t="n">
-        <v>0.23461055135861</v>
+        <v>0.1042190947849278</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.07986595809874539</v>
+        <v>0.009518462585712997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1030044232372933</v>
+        <v>0.4780825805486169</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5770099547254814</v>
+        <v>0.9771840523012501</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04542600031128996</v>
+        <v>0.02336457421867082</v>
       </c>
       <c r="D7" t="n">
-        <v>0.320246765117079</v>
+        <v>0.52482717978129</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9171968070596663</v>
+        <v>0.1425625722810053</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8367947826694948</v>
+        <v>0.2412675506217</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6130583861340029</v>
+        <v>0.0941541967382945</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8467869144063641</v>
+        <v>0.05166842860552502</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7622041585470434</v>
+        <v>0.008971548736104814</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2544482355208793</v>
+        <v>0.005055115895626078</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7794864595272873</v>
+        <v>0.2851979178834086</v>
       </c>
       <c r="L7" t="n">
-        <v>0.910412683901159</v>
+        <v>0.6610182635136381</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08418538448993526</v>
+        <v>0.412737950653925</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6535695584535659</v>
+        <v>0.8601828671647752</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0188111012014711</v>
+        <v>0.0174307800428759</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9265340041969938</v>
+        <v>0.04688866468648059</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5097824406255036</v>
+        <v>0.9366537661678829</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001981903473814255</v>
+        <v>0.001677507739091297</v>
       </c>
       <c r="S7" t="n">
-        <v>94.33296870134093</v>
+        <v>87.44600540433912</v>
       </c>
       <c r="T7" t="n">
-        <v>86.75729942861342</v>
+        <v>78.94830373749215</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1866114547335339</v>
+        <v>0.1063290191167436</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.08921354078330651</v>
+        <v>0.01589704367965705</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9724175843596744</v>
+        <v>0.9812674432850605</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5580805644313842</v>
+        <v>0.992845582563692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6071922054784743</v>
+        <v>0.03827625587493344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9074950714886958</v>
+        <v>0.1886670236759351</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9721384403544691</v>
+        <v>0.6806305379691434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3272054867212563</v>
+        <v>0.1629325872277955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7651822626187205</v>
+        <v>0.02291530678337964</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0668841126550254</v>
+        <v>0.01019942911379838</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6887610694685318</v>
+        <v>0.0001244137776286887</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02497960833399322</v>
+        <v>0.00182138583289093</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5967259053509426</v>
+        <v>0.6950271273351482</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01439103774434919</v>
+        <v>0.7860598344375873</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04961078200085294</v>
+        <v>0.4192214771782058</v>
       </c>
       <c r="N8" t="n">
-        <v>0.654563179704255</v>
+        <v>0.8984426495584003</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1159395073166026</v>
+        <v>0.002102264983109808</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7648832016706273</v>
+        <v>0.03953308011017359</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6227413933589856</v>
+        <v>0.873313403578889</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002044365287199575</v>
+        <v>0.001545320361686838</v>
       </c>
       <c r="S8" t="n">
-        <v>89.28709313193673</v>
+        <v>88.00906397949703</v>
       </c>
       <c r="T8" t="n">
-        <v>82.22339878110738</v>
+        <v>79.06987135719196</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1333522414867258</v>
+        <v>0.1043647313154365</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.05031410060873041</v>
+        <v>0.01230406311875944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.999264887694133</v>
+        <v>0.984845913170205</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8407742575909536</v>
+        <v>0.995188903077363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01594223672500387</v>
+        <v>0.09942023502182054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01735815573090582</v>
+        <v>0.3620138165052594</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2048970619591948</v>
+        <v>0.2276780367932663</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2193430344159079</v>
+        <v>0.1567476131006093</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7622969377659852</v>
+        <v>0.06144460094030993</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1665536485436078</v>
+        <v>0.003972896306750141</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03978600801341459</v>
+        <v>0.0005684069399798208</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0104363722508326</v>
+        <v>0.0004055922094004063</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9433413482454108</v>
+        <v>0.3562897704216477</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5670656231694087</v>
+        <v>0.8925908076455216</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02639570297623579</v>
+        <v>0.008995950694633889</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04725110722951217</v>
+        <v>0.9083843148364702</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01825120784659189</v>
+        <v>0.02137625941329581</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09255746714213581</v>
+        <v>0.4853188765327637</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6403642810237615</v>
+        <v>0.8888682674557064</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001577498170918024</v>
+        <v>0.001592964832420602</v>
       </c>
       <c r="S9" t="n">
-        <v>85.05690383620814</v>
+        <v>84.7620093316235</v>
       </c>
       <c r="T9" t="n">
-        <v>79.100450889325</v>
+        <v>78.23881122124996</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1119488743862287</v>
+        <v>0.1041020713997545</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0002787488707765573</v>
+        <v>-0.02607755422895805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9674014363666408</v>
+        <v>0.495937655634095</v>
       </c>
       <c r="B10" t="n">
-        <v>0.527257740777661</v>
+        <v>0.4279667359020987</v>
       </c>
       <c r="C10" t="n">
-        <v>0.397747223716884</v>
+        <v>0.1303768222018483</v>
       </c>
       <c r="D10" t="n">
-        <v>0.449303369459692</v>
+        <v>0.1600160648628304</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8134717986442054</v>
+        <v>0.7450292230144351</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4350933722429421</v>
+        <v>0.1611654669097312</v>
       </c>
       <c r="G10" t="n">
-        <v>0.780447324425922</v>
+        <v>0.02582437677860216</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8580762351077131</v>
+        <v>0.002464999484821746</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9362799074736432</v>
+        <v>5.721846341467951e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9214159289957295</v>
+        <v>0.002678766784364461</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9343531638734948</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8829262428294317</v>
+        <v>0.5778285950665716</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6933588588612398</v>
+        <v>0.1496694895654644</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6640291174664725</v>
+        <v>0.001285123127667768</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09822187903257484</v>
+        <v>0.1678343512585297</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1272710954753504</v>
+        <v>0.1737264293056121</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3917899630042205</v>
+        <v>0.827497490299101</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001965945716124558</v>
+        <v>0.001665204386741477</v>
       </c>
       <c r="S10" t="n">
-        <v>100.4255272779865</v>
+        <v>83.56201070468617</v>
       </c>
       <c r="T10" t="n">
-        <v>91.39722969284006</v>
+        <v>78.09306835413365</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2384917788384885</v>
+        <v>0.1041113671254141</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.08619452420643919</v>
+        <v>-0.01284678849290063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1517441966210985</v>
+        <v>0.9948919766041613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2185363075204234</v>
+        <v>0.1194723719088066</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550358721401366</v>
+        <v>0.02092158269100503</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8078634748752271</v>
+        <v>0.3555245774358528</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7345560304078681</v>
+        <v>0.7123922826673843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.475510407916281</v>
+        <v>0.1546538503420993</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3520382150645809</v>
+        <v>0.04303529060720142</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7931349109326556</v>
+        <v>0.03964601920119863</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8678508292309683</v>
+        <v>0.0003048148670691757</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1887546934563377</v>
+        <v>0.004998357333856926</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5634056472219118</v>
+        <v>0.6296368448856653</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1346640990921344</v>
+        <v>0.06763668124801281</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6967430865945705</v>
+        <v>0.1490673173991987</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6163593132200044</v>
+        <v>0.02051937962985332</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07810692452985983</v>
+        <v>0.2382897838843782</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005283827961954465</v>
+        <v>0.2272601838795936</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4272375514973857</v>
+        <v>0.8460277715646445</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002286201337242833</v>
+        <v>0.001705371576431094</v>
       </c>
       <c r="S11" t="n">
-        <v>95.86809127700175</v>
+        <v>83.6693752944264</v>
       </c>
       <c r="T11" t="n">
-        <v>87.32803624894325</v>
+        <v>78.24927961023717</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1852697358854242</v>
+        <v>0.1055641093734694</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.1113105493990111</v>
+        <v>-0.005300878782656025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.05934356941315513</v>
+        <v>0.09415595447994984</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5827056311044293</v>
+        <v>0.08103815365881661</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6477993851443621</v>
+        <v>0.04727725537338391</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9379307153736258</v>
+        <v>0.00348144036914326</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7015524113914824</v>
+        <v>0.6984102228394095</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8575746490497818</v>
+        <v>0.1138953019468322</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8508071247862353</v>
+        <v>0.004021817451919929</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07588328108542292</v>
+        <v>0.001265694508811104</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8359577366752213</v>
+        <v>0.00112477936182811</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2366397930696036</v>
+        <v>0.001339382497411392</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5672203098171251</v>
+        <v>0.6521939742811743</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9355887964991443</v>
+        <v>0.04961903048189054</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1923312367853126</v>
+        <v>0.001075086272818979</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6355851848619164</v>
+        <v>0.001064970062585879</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09756990009910402</v>
+        <v>0.02018339078483832</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1138643735248612</v>
+        <v>0.1843901254960935</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5447379557646316</v>
+        <v>0.8015172152563261</v>
       </c>
       <c r="R12" t="n">
-        <v>0.002199931183456469</v>
+        <v>0.001721120465777248</v>
       </c>
       <c r="S12" t="n">
-        <v>90.22841573421663</v>
+        <v>83.83631486948785</v>
       </c>
       <c r="T12" t="n">
-        <v>83.51127690521663</v>
+        <v>77.79935766534621</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1496770218086394</v>
+        <v>0.1040577472382953</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.04321060444108366</v>
+        <v>-0.008144774710741907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9239310464380401</v>
+        <v>0.2048079448406553</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8337775814001765</v>
+        <v>0.1386187639924599</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06262766137300185</v>
+        <v>0.02111508311972767</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01527163127349117</v>
+        <v>0.1584565667338085</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2199735761591662</v>
+        <v>0.9914116977301652</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2077896117320044</v>
+        <v>0.1611654669097312</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7623645164192332</v>
+        <v>0.003017387170479967</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1665536485436078</v>
+        <v>0.002466824437254337</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03973747336940133</v>
+        <v>5.721846341467951e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01000129181499318</v>
+        <v>0.002678766784364461</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3278073284825451</v>
+        <v>0.6862533987917836</v>
       </c>
       <c r="L13" t="n">
-        <v>0.577663556824991</v>
+        <v>0.09651523302000803</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001979669951563759</v>
+        <v>0.005721392854920959</v>
       </c>
       <c r="N13" t="n">
-        <v>0.129753850429094</v>
+        <v>0.001249648819173188</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09427430115428019</v>
+        <v>0.0261629318626919</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9583182851064149</v>
+        <v>0.1737264293056121</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6344793911902431</v>
+        <v>0.7878130863661269</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001600032696953146</v>
+        <v>0.001879111250507867</v>
       </c>
       <c r="S13" t="n">
-        <v>84.8867729011389</v>
+        <v>83.99565615885371</v>
       </c>
       <c r="T13" t="n">
-        <v>78.98188020162733</v>
+        <v>77.7638319863068</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1119299555161566</v>
+        <v>0.1041114886341365</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0007120874556546877</v>
+        <v>-0.01262328590299232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9974585265450314</v>
+        <v>0.9972628822351025</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5302041026352703</v>
+        <v>0.9715678913638233</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04453996254819096</v>
+        <v>0.0009698493851880334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02947578630017391</v>
+        <v>0.1671144706842216</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8280347224291924</v>
+        <v>0.767605236745042</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4618887905359086</v>
+        <v>0.1572112600070898</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3571612600212409</v>
+        <v>0.01928953595929797</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07246881817998735</v>
+        <v>0.0009156812539442554</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8210504067688326</v>
+        <v>6.508769010226713e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001525777515891057</v>
+        <v>0.002111806705302676</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8998606186655509</v>
+        <v>0.7022016484574731</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1369029527873971</v>
+        <v>0.6736130588733502</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6818479767938902</v>
+        <v>0.4149201886092161</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6626001452108687</v>
+        <v>0.8730971584282827</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2043288625834589</v>
+        <v>0.02354016822916621</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02958217624578152</v>
+        <v>0.1585172691357</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6110264048661297</v>
+        <v>0.8525919055695362</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001675646339885094</v>
+        <v>0.001539665009975936</v>
       </c>
       <c r="S14" t="n">
-        <v>91.76828732983101</v>
+        <v>87.93581355019063</v>
       </c>
       <c r="T14" t="n">
-        <v>82.6737357743844</v>
+        <v>79.12376822992887</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1374851325077432</v>
+        <v>0.1040343577344311</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.03491107611655657</v>
+        <v>0.007928508562651385</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7171528015689064</v>
+        <v>0.0913580459571276</v>
       </c>
       <c r="B15" t="n">
-        <v>0.562877591199567</v>
+        <v>0.1095555084310132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006235790460136708</v>
+        <v>0.006346278977772547</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06484123944519554</v>
+        <v>0.01003624323522567</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8131207648342994</v>
+        <v>0.9830298057732747</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8656068375050998</v>
+        <v>0.1612713339550498</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8147471319919081</v>
+        <v>0.002644022236101469</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9639570009743874</v>
+        <v>0.002311194164536484</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7346963862257442</v>
+        <v>8.112104069406961e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5102790842818662</v>
+        <v>0.000261243228770568</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3484805574300942</v>
+        <v>0.3342633389706665</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9857605278974223</v>
+        <v>0.3139434056453353</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7191785249433973</v>
+        <v>0.003179959823122725</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6275974969137306</v>
+        <v>7.776069587557273e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2059577853955482</v>
+        <v>0.1076738456241869</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01513503543377137</v>
+        <v>0.4044971210500384</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4407135156899216</v>
+        <v>0.7591224938019185</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001841628338103876</v>
+        <v>0.001848776280205324</v>
       </c>
       <c r="S15" t="n">
-        <v>98.96013428091787</v>
+        <v>83.93729747702712</v>
       </c>
       <c r="T15" t="n">
-        <v>88.92235664595415</v>
+        <v>77.7458168325051</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2068949366458602</v>
+        <v>0.1040157767686361</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.08672826022543978</v>
+        <v>-0.007698876206448206</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9592078292233759</v>
+        <v>0.07542030148727838</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5369589396924306</v>
+        <v>0.1980830147701235</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6348670360004935</v>
+        <v>0.04727725537338391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5097358468369462</v>
+        <v>0.00348144036914326</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6087552097636234</v>
+        <v>0.9813664511059628</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4168076816191629</v>
+        <v>0.1545308126224065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5775887444336719</v>
+        <v>0.00048426389612659</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8328134355144682</v>
+        <v>0.002466211580370665</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7140795119158571</v>
+        <v>3.198033230368739e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04514719680818424</v>
+        <v>0.002702194318107409</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9247438324701278</v>
+        <v>0.6514794263010176</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001712259566828703</v>
+        <v>0.03970811130479291</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6955654930393429</v>
+        <v>0.005963013714330445</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6359747823420224</v>
+        <v>0.001235436578920785</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08990021448053824</v>
+        <v>0.0229818731286486</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9265999875141006</v>
+        <v>0.1823494746303974</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5184074256241804</v>
+        <v>0.7824509573747809</v>
       </c>
       <c r="R16" t="n">
-        <v>0.001912577501390362</v>
+        <v>0.001809170078515925</v>
       </c>
       <c r="S16" t="n">
-        <v>94.70423180201117</v>
+        <v>84.06538828255691</v>
       </c>
       <c r="T16" t="n">
-        <v>85.84570438443825</v>
+        <v>77.73560956093199</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1709921532738989</v>
+        <v>0.1041114251041953</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.09986995470353252</v>
+        <v>-0.006540844765774167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7448902949670039</v>
+        <v>0.06635689520681745</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5513517735396251</v>
+        <v>0.1095555084310132</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4723776419969085</v>
+        <v>0.01449608749871098</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009283981843252187</v>
+        <v>0.008166325992459172</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3745515762985693</v>
+        <v>0.9340813337080637</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5450442141192789</v>
+        <v>0.1648584317506819</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8178670484886332</v>
+        <v>0.002644022236101469</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001452127029621164</v>
+        <v>0.002695747054134397</v>
       </c>
       <c r="I17" t="n">
-        <v>0.004154431660988278</v>
+        <v>0.0002162567969463718</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005359345017662664</v>
+        <v>0.000261243228770568</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2429635769078402</v>
+        <v>0.3509956171305746</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9677155258102126</v>
+        <v>0.001968117471443912</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0251724360238621</v>
+        <v>0.00889942894986121</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01206842635486538</v>
+        <v>7.776069587557273e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1467466011194113</v>
+        <v>0.0141500488668769</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06507315759561227</v>
+        <v>0.4044971210500384</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6657813670873112</v>
+        <v>0.7676739695741416</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00157083118011526</v>
+        <v>0.001824545349886769</v>
       </c>
       <c r="S17" t="n">
-        <v>84.07399788647919</v>
+        <v>84.03633150547554</v>
       </c>
       <c r="T17" t="n">
-        <v>78.0198049372153</v>
+        <v>77.7402802012285</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1043001519336031</v>
+        <v>0.1040373917517172</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.01300820518194591</v>
+        <v>-0.00626166753661132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1554982632689372</v>
+        <v>0.02202203745648146</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5702505098293897</v>
+        <v>0.09486316738144812</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5415990672240821</v>
+        <v>0.02071236405472115</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7902467220788083</v>
+        <v>0.3296775323203032</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7031515247123359</v>
+        <v>0.1875424528179584</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4101915945612821</v>
+        <v>0.2529162584407148</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7264728521977545</v>
+        <v>0.03316986158658895</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4356670033297215</v>
+        <v>0.01010142485464855</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7410553563630665</v>
+        <v>0.0004126723277417996</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4367540847279175</v>
+        <v>0.0006566115619067483</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2895974275758599</v>
+        <v>0.6954196723772303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9146867109154677</v>
+        <v>0.696887854680691</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01209767626369396</v>
+        <v>0.1502162319501667</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6551713183048721</v>
+        <v>0.009426947297368815</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2715008108508207</v>
+        <v>0.02534780675699823</v>
       </c>
       <c r="P18" t="n">
-        <v>0.834782221336885</v>
+        <v>0.1245711217469084</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.527916129691858</v>
+        <v>0.8325992933046306</v>
       </c>
       <c r="R18" t="n">
-        <v>0.002147310082572909</v>
+        <v>0.001657730001765376</v>
       </c>
       <c r="S18" t="n">
-        <v>91.93412602638634</v>
+        <v>83.01656398597783</v>
       </c>
       <c r="T18" t="n">
-        <v>85.44973755691498</v>
+        <v>78.18653324609096</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1745166639052874</v>
+        <v>0.1043291613331484</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.06616467846963189</v>
+        <v>-0.002577482969783097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.08238716112623028</v>
+        <v>0.02773697942769671</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5913880532088546</v>
+        <v>0.9401060202339656</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5346943114673168</v>
+        <v>0.02049428230340843</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9850517392419198</v>
+        <v>0.01589435693234692</v>
       </c>
       <c r="E19" t="n">
-        <v>0.632636458905468</v>
+        <v>0.6521282456312485</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4511814926438005</v>
+        <v>0.08877004477844737</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6144330199254724</v>
+        <v>0.005250311522571738</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8713794379750672</v>
+        <v>0.0003090967107928057</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7079211667232298</v>
+        <v>0.0003420022494955017</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9247367530797042</v>
+        <v>0.0003620473334879611</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5071366086610686</v>
+        <v>0.225010620835386</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8629716377679856</v>
+        <v>0.6737215274554496</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7356300157252753</v>
+        <v>0.01187112178887589</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6531449148185765</v>
+        <v>0.001252947359746273</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03794120792322189</v>
+        <v>0.007575660910479384</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1819192045839738</v>
+        <v>0.995317657364134</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3548960724624043</v>
+        <v>0.7504947986476527</v>
       </c>
       <c r="R19" t="n">
-        <v>0.002384570799076278</v>
+        <v>0.001574722040528336</v>
       </c>
       <c r="S19" t="n">
-        <v>99.20447958208185</v>
+        <v>84.30459908630083</v>
       </c>
       <c r="T19" t="n">
-        <v>90.54577602741048</v>
+        <v>77.85721620590995</v>
       </c>
       <c r="U19" t="n">
-        <v>0.2251284797640624</v>
+        <v>0.1039587151623759</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.06505681541282521</v>
+        <v>-0.01795430967049388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01217727145852545</v>
+        <v>0.3627046647359246</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2895276425283628</v>
+        <v>0.9948714458803556</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5810228877613067</v>
+        <v>0.0309328393837041</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9507859419859938</v>
+        <v>0.5335769530074135</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9904298786007175</v>
+        <v>0.08875847876106488</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8236878837561116</v>
+        <v>0.1513462880900404</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8657644922041924</v>
+        <v>0.02012141268655415</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005499265002284365</v>
+        <v>0.02174071789860272</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6037238212564744</v>
+        <v>0.0001272457351849579</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3015968678508054</v>
+        <v>0.002860282609332731</v>
       </c>
       <c r="K20" t="n">
-        <v>0.737251659881349</v>
+        <v>0.7062418634594343</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9963547762716528</v>
+        <v>0.8899833945271727</v>
       </c>
       <c r="M20" t="n">
-        <v>0.007880590523207998</v>
+        <v>0.162290863707673</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5895274587018158</v>
+        <v>0.88436608370693</v>
       </c>
       <c r="O20" t="n">
-        <v>0.137216039174891</v>
+        <v>0.01823569587747652</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8775553143676372</v>
+        <v>0.1429438263675835</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6082298583879943</v>
+        <v>0.9190357292251398</v>
       </c>
       <c r="R20" t="n">
-        <v>0.002364759143561686</v>
+        <v>0.001695371958408291</v>
       </c>
       <c r="S20" t="n">
-        <v>87.48667844224373</v>
+        <v>85.17607818246702</v>
       </c>
       <c r="T20" t="n">
-        <v>82.43314065868908</v>
+        <v>78.46953427631918</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1397062245703233</v>
+        <v>0.1048244857803606</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.05425037667078585</v>
+        <v>-0.01986158671764567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9315723827941261</v>
+        <v>0.4502323895813028</v>
       </c>
       <c r="B21" t="n">
-        <v>0.172470815362591</v>
+        <v>0.2300866792114431</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0542002384535123</v>
+        <v>0.006892206446149823</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5198830728658955</v>
+        <v>0.01249995527785497</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9020958099992823</v>
+        <v>0.2327422403830495</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1432021603144364</v>
+        <v>0.1544807588296993</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6827497935575539</v>
+        <v>0.004246262813741028</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7342350889030705</v>
+        <v>0.002378668591484204</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9763716712611794</v>
+        <v>0.0001506270770732736</v>
       </c>
       <c r="J21" t="n">
-        <v>0.40824743155194</v>
+        <v>0.0003429237736655285</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3351144430486013</v>
+        <v>0.6173614873119141</v>
       </c>
       <c r="L21" t="n">
-        <v>0.09515494543844884</v>
+        <v>0.156932686083305</v>
       </c>
       <c r="M21" t="n">
-        <v>0.720841111464928</v>
+        <v>0.3853195206269112</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6609732727176356</v>
+        <v>0.001234818246404739</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1801735100594187</v>
+        <v>0.02302814477443636</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9216566715197783</v>
+        <v>0.4054659017990044</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4193539268324338</v>
+        <v>0.8370924866271321</v>
       </c>
       <c r="R21" t="n">
-        <v>0.002049787925273708</v>
+        <v>0.001595682616886726</v>
       </c>
       <c r="S21" t="n">
-        <v>97.75669860021759</v>
+        <v>83.28955329218994</v>
       </c>
       <c r="T21" t="n">
-        <v>88.70286044108161</v>
+        <v>78.25085897415076</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2012192864088262</v>
+        <v>0.104026288198315</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.1330398133316111</v>
+        <v>-0.0088169974260317</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.08857629910657655</v>
+        <v>0.9603587626585711</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5913880532088546</v>
+        <v>0.9870522746556631</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4075101134368495</v>
+        <v>0.02235628393495964</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4538307788813515</v>
+        <v>0.2153828596224815</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6357970007521567</v>
+        <v>0.4620120237999358</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4516745510656769</v>
+        <v>0.3857726963055362</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6184920642431216</v>
+        <v>0.07152606805440843</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9292059745188153</v>
+        <v>0.002588103634876885</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7104458357217156</v>
+        <v>0.0002021688237152357</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01828822521611417</v>
+        <v>0.0007731077545068683</v>
       </c>
       <c r="K22" t="n">
-        <v>0.300747468736925</v>
+        <v>0.0128484949264337</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8620902161296214</v>
+        <v>0.9292302246339332</v>
       </c>
       <c r="M22" t="n">
-        <v>0.693436200063943</v>
+        <v>0.148157774189361</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6314211561787334</v>
+        <v>0.8731361650723548</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02402525834372096</v>
+        <v>0.02126543369170179</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2526879109133676</v>
+        <v>0.4178306242536379</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4897227922100451</v>
+        <v>0.8813608116249897</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001972147478919363</v>
+        <v>0.001563616554894991</v>
       </c>
       <c r="S22" t="n">
-        <v>95.94869738502297</v>
+        <v>86.26227193165219</v>
       </c>
       <c r="T22" t="n">
-        <v>86.11076002048614</v>
+        <v>78.47964136876038</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1736890204829913</v>
+        <v>0.1040516317104661</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.06931129547352075</v>
+        <v>-0.01820738509228405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.008713244950271086</v>
+        <v>0.4987066755064512</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2579433187615801</v>
+        <v>0.3651087350080488</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5302853510776125</v>
+        <v>0.1303903738078385</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9074950714886958</v>
+        <v>8.821826370991668e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9875413490946563</v>
+        <v>0.0319395522246691</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3272054867212563</v>
+        <v>0.2005017335757425</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5261263553668736</v>
+        <v>0.02294147304612487</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005175578956382133</v>
+        <v>0.002689609654581108</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6887610694685318</v>
+        <v>0.001838222825820019</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0245598603441658</v>
+        <v>0.002559937655605575</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6979290603728833</v>
+        <v>0.2675311397587976</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01439103774434919</v>
+        <v>0.5990394513595557</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02340436422443801</v>
+        <v>0.006568758093702994</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6161381134060708</v>
+        <v>0.001286375761960466</v>
       </c>
       <c r="O23" t="n">
-        <v>0.07521544918648539</v>
+        <v>0.178287244586055</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7648832016706273</v>
+        <v>0.188169842103825</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6049669656360719</v>
+        <v>0.7261802484312371</v>
       </c>
       <c r="R23" t="n">
-        <v>0.002323395438992046</v>
+        <v>0.001614306354937779</v>
       </c>
       <c r="S23" t="n">
-        <v>88.14535740733761</v>
+        <v>82.81314043667494</v>
       </c>
       <c r="T23" t="n">
-        <v>81.96749865005599</v>
+        <v>78.05259655496926</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1304940062287557</v>
+        <v>0.1041804217042525</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.04937117412850068</v>
+        <v>-0.0129406146809038</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9260334308361823</v>
+        <v>0.9487172342279846</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8217960463680282</v>
+        <v>0.9982653782827976</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0106462972095907</v>
+        <v>0.0003621086753371593</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02007137613669452</v>
+        <v>0.02700874782415486</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1877733729088185</v>
+        <v>0.7466196063570429</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3474902891589986</v>
+        <v>0.1601649597741591</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8799445474161254</v>
+        <v>0.0228801509161319</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1665536485436078</v>
+        <v>0.001654200890084248</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03978600801341459</v>
+        <v>0.0001420960824308884</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2546456424826159</v>
+        <v>0.004801033308224116</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3278073284825451</v>
+        <v>0.6746522462414208</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5590020267193099</v>
+        <v>0.04041950634055685</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001873800715556582</v>
+        <v>0.3921220730690305</v>
       </c>
       <c r="N24" t="n">
-        <v>0.129753850429094</v>
+        <v>0.659333936117631</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1112371029673859</v>
+        <v>0.01674049637826837</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9593349419538109</v>
+        <v>0.4198866684865211</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6279226557132527</v>
+        <v>0.8493304552704992</v>
       </c>
       <c r="R24" t="n">
-        <v>0.001612025534925185</v>
+        <v>0.001532937083110079</v>
       </c>
       <c r="S24" t="n">
-        <v>86.03590421035993</v>
+        <v>87.24548618256181</v>
       </c>
       <c r="T24" t="n">
-        <v>80.14047649306406</v>
+        <v>79.00465451103477</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1215610480003196</v>
+        <v>0.1041623711826263</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01019119183423388</v>
+        <v>0.007695721887581018</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1195982302143965</v>
+        <v>0.4359511152462828</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4996298887373194</v>
+        <v>0.9771840523012501</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03807886609068289</v>
+        <v>0.0231559385412649</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4609194380166209</v>
+        <v>0.52482717978129</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6029524066593497</v>
+        <v>0.1392320322003985</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3896665502566343</v>
+        <v>0.2412675506217</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8408575786449533</v>
+        <v>0.02272696349768496</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4039577208071704</v>
+        <v>0.001656604255192068</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7075083581727066</v>
+        <v>0.0002698324832849245</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4486786046863901</v>
+        <v>0.005055115895626078</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5125350505332299</v>
+        <v>0.320401928571052</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08044469923671815</v>
+        <v>0.6610182635136381</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02386322662729146</v>
+        <v>0.412737950653925</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6534955714668694</v>
+        <v>0.8578558319825116</v>
       </c>
       <c r="O25" t="n">
-        <v>0.08833822823561946</v>
+        <v>0.0174307800428759</v>
       </c>
       <c r="P25" t="n">
-        <v>0.9202742968808507</v>
+        <v>0.04090605899524308</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5496381114621735</v>
+        <v>0.9359897385166542</v>
       </c>
       <c r="R25" t="n">
-        <v>0.001891121627047556</v>
+        <v>0.001676124318856071</v>
       </c>
       <c r="S25" t="n">
-        <v>92.52340951631575</v>
+        <v>87.23626266231086</v>
       </c>
       <c r="T25" t="n">
-        <v>85.55443539771063</v>
+        <v>78.72072193504793</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1718261554113178</v>
+        <v>0.1041765106037013</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.1169044985049242</v>
+        <v>0.00431607956686636</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1608027261235257</v>
+        <v>0.06077286756214248</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5300250016683831</v>
+        <v>0.2228979776151659</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06797826985919281</v>
+        <v>0.0213676553171461</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04600688208810305</v>
+        <v>0.003148258246650357</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6975651957418474</v>
+        <v>0.9829366242993602</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4646111488836088</v>
+        <v>0.1571588822017053</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7289232163553935</v>
+        <v>0.01661099863665681</v>
       </c>
       <c r="H26" t="n">
-        <v>0.475462644589742</v>
+        <v>0.0003533607639711724</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7035720743296524</v>
+        <v>0.0003499718323793517</v>
       </c>
       <c r="J26" t="n">
-        <v>0.004360284256742453</v>
+        <v>0.001385166573840938</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5669990130594115</v>
+        <v>0.651959909950631</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3482926043836878</v>
+        <v>0.04151751390740227</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1892278540936615</v>
+        <v>0.0192367209889901</v>
       </c>
       <c r="N26" t="n">
-        <v>0.662260472035185</v>
+        <v>0.001234071546428176</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2044498467092602</v>
+        <v>0.04350973204059871</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2445841767444313</v>
+        <v>0.394284021645928</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.603558210247922</v>
+        <v>0.784610757703663</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001755953143573604</v>
+        <v>0.001799138317621583</v>
       </c>
       <c r="S26" t="n">
-        <v>91.4859497751538</v>
+        <v>83.99049484871077</v>
       </c>
       <c r="T26" t="n">
-        <v>83.65786343366038</v>
+        <v>77.743299207227</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1516775575862586</v>
+        <v>0.103997857624461</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.06888698210584868</v>
+        <v>-0.006095791941106477</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01122167580163191</v>
+        <v>0.05635650193763617</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6161685951342656</v>
+        <v>0.3945167850993891</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6380878486125129</v>
+        <v>0.02285805709107023</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5097358468369462</v>
+        <v>0.01496173108468449</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7708403285492306</v>
+        <v>0.0007871368441035454</v>
       </c>
       <c r="F27" t="n">
-        <v>0.418270558852855</v>
+        <v>0.09169775944766423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5856445507285276</v>
+        <v>0.004717801636902445</v>
       </c>
       <c r="H27" t="n">
-        <v>0.997572798826175</v>
+        <v>0.0003500138474022609</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7983920136321185</v>
+        <v>0.0003420022494955017</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03412275936901638</v>
+        <v>0.0002672370136501587</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7760444560932374</v>
+        <v>0.6840762885092037</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9650774100016912</v>
+        <v>0.7396916973110146</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7591596269362944</v>
+        <v>0.03405208175945126</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6359747823420224</v>
+        <v>0.001252947359746273</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1271707211583504</v>
+        <v>0.1032097693606002</v>
       </c>
       <c r="P27" t="n">
-        <v>0.9802515681129875</v>
+        <v>0.9947405599441841</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4537668563211919</v>
+        <v>0.7488193066451643</v>
       </c>
       <c r="R27" t="n">
-        <v>0.002080235111364758</v>
+        <v>0.001651027436115536</v>
       </c>
       <c r="S27" t="n">
-        <v>96.81559672773415</v>
+        <v>82.52333085322948</v>
       </c>
       <c r="T27" t="n">
-        <v>86.98585830866614</v>
+        <v>78.03988769249283</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1822622472699722</v>
+        <v>0.103956684054646</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.07442953207950484</v>
+        <v>-0.01770383979842577</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.01122167580163191</v>
+        <v>0.4973876888581845</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6161685951342656</v>
+        <v>0.3651087350080488</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6380878486125129</v>
+        <v>0.1303903738078385</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5028884484809506</v>
+        <v>0.001009877021926631</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7708403285492306</v>
+        <v>0.0319395522246691</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8719184344955846</v>
+        <v>0.1992310508072604</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5856445507285276</v>
+        <v>0.02294674120942358</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9783685979104211</v>
+        <v>0.0008817579689678486</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7958495652656273</v>
+        <v>0.001838222825820019</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03412275936901638</v>
+        <v>0.002670260491434213</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5915742841685625</v>
+        <v>0.2675311397587976</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1488851178540626</v>
+        <v>0.5804184334461548</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7591596269362944</v>
+        <v>0.006568758093702994</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6352333184921412</v>
+        <v>0.001286375761960466</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2112292289349976</v>
+        <v>0.178287244586055</v>
       </c>
       <c r="P28" t="n">
-        <v>0.9781137193723114</v>
+        <v>0.188169842103825</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4612106991547077</v>
+        <v>0.7265754231715826</v>
       </c>
       <c r="R28" t="n">
-        <v>0.002074946371093144</v>
+        <v>0.001614182520073892</v>
       </c>
       <c r="S28" t="n">
-        <v>95.47815022423703</v>
+        <v>82.81819345595937</v>
       </c>
       <c r="T28" t="n">
-        <v>86.9261556633094</v>
+        <v>78.04449638143338</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1812167667776955</v>
+        <v>0.1041184177152897</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.09812306249224584</v>
+        <v>-0.01296439414115314</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9933896070094593</v>
+        <v>0.9487172342279846</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5977619793807929</v>
+        <v>0.9889536985263945</v>
       </c>
       <c r="C29" t="n">
-        <v>0.003276360130734016</v>
+        <v>0.0003621086753371593</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4584032912237046</v>
+        <v>0.03112124312858412</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3607426991508897</v>
+        <v>0.7466196063570429</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3832018506695242</v>
+        <v>0.0556753871122295</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2651329246654452</v>
+        <v>0.02286671850995988</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01652256468699267</v>
+        <v>0.002385990924029572</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0005980803882371794</v>
+        <v>0.0001602493607549035</v>
       </c>
       <c r="J29" t="n">
-        <v>0.002602015016471025</v>
+        <v>0.004801820452309444</v>
       </c>
       <c r="K29" t="n">
-        <v>0.599682975299539</v>
+        <v>0.6685424976254498</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03957696041050174</v>
+        <v>0.5874883875266665</v>
       </c>
       <c r="M29" t="n">
-        <v>0.004937556428541011</v>
+        <v>0.3721248987431139</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2408793648524839</v>
+        <v>0.6595837734575848</v>
       </c>
       <c r="O29" t="n">
-        <v>0.09769595633626714</v>
+        <v>0.01674049637826837</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0791053795381759</v>
+        <v>0.4054860695707692</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7428320592425711</v>
+        <v>0.8517555134633453</v>
       </c>
       <c r="R29" t="n">
-        <v>0.00155430328149688</v>
+        <v>0.001533958845460319</v>
       </c>
       <c r="S29" t="n">
-        <v>85.32250529723346</v>
+        <v>86.84570704941082</v>
       </c>
       <c r="T29" t="n">
-        <v>78.34737368104301</v>
+        <v>78.86746683661644</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1046205459775174</v>
+        <v>0.1041897969965374</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.00376434369298637</v>
+        <v>0.01138251228538169</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9916307708553102</v>
+        <v>0.4545442810770615</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5077503664243889</v>
+        <v>0.2224659294841231</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01634520523099958</v>
+        <v>0.002896840395853803</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7544649053973893</v>
+        <v>0.00100007087842835</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1705456371711303</v>
+        <v>0.9847707683445703</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2482458843945722</v>
+        <v>0.161113339751631</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7139353293237076</v>
+        <v>0.01774040713375229</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08248728565603354</v>
+        <v>0.001696757863657566</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01009883955501745</v>
+        <v>5.075266614329914e-05</v>
       </c>
       <c r="J30" t="n">
-        <v>0.001187105269920194</v>
+        <v>0.001433184590475953</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2618690610975049</v>
+        <v>0.2985522741071766</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9335520613796415</v>
+        <v>0.1056543019584811</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02762537849206415</v>
+        <v>0.01738049614566939</v>
       </c>
       <c r="N30" t="n">
-        <v>0.07051177720513768</v>
+        <v>0.003134785098890924</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01127567050422042</v>
+        <v>0.01716567168682606</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1339992053727244</v>
+        <v>0.04963556157875604</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7320081551249795</v>
+        <v>0.7606701751712206</v>
       </c>
       <c r="R30" t="n">
-        <v>0.001600642042403662</v>
+        <v>0.001786473784000555</v>
       </c>
       <c r="S30" t="n">
-        <v>83.95067743013566</v>
+        <v>84.1196232256345</v>
       </c>
       <c r="T30" t="n">
-        <v>78.37039688209039</v>
+        <v>77.7836043187059</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1073419016991752</v>
+        <v>0.1040376255172288</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.02431778428950935</v>
+        <v>-0.01629306004480793</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8880407905801052</v>
+        <v>0.9603587626585711</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1693031564906724</v>
+        <v>0.9870487450204822</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09780283855610111</v>
+        <v>0.04687951805727939</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01751161434379139</v>
+        <v>0.2153828596224815</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9859037608372292</v>
+        <v>0.6854544357102352</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1243184068646605</v>
+        <v>0.3857726963055362</v>
       </c>
       <c r="G31" t="n">
-        <v>0.712864322864348</v>
+        <v>0.02515848555469437</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0366786067538461</v>
+        <v>0.009311656423929966</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2988240338319644</v>
+        <v>0.0002139632526541528</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0532895578514217</v>
+        <v>0.001932642105400651</v>
       </c>
       <c r="K31" t="n">
-        <v>0.177996879443731</v>
+        <v>0.7047486271893021</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06673928935682089</v>
+        <v>0.9292302246339332</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7298034567569196</v>
+        <v>0.1474098554940006</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5939725091755015</v>
+        <v>0.8731361650723548</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1144101672785988</v>
+        <v>0.02622637459790434</v>
       </c>
       <c r="P31" t="n">
-        <v>0.2433596818397933</v>
+        <v>0.3955107392563841</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6190453941787167</v>
+        <v>0.8726930868329044</v>
       </c>
       <c r="R31" t="n">
-        <v>0.001788510903571823</v>
+        <v>0.001553973401546742</v>
       </c>
       <c r="S31" t="n">
-        <v>89.9625807319096</v>
+        <v>86.45825261568483</v>
       </c>
       <c r="T31" t="n">
-        <v>81.14779079212541</v>
+        <v>78.65452959298989</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1185168696046006</v>
+        <v>0.1043397739172967</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.02117173200992362</v>
+        <v>-0.01869680811194172</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8782390472088902</v>
+        <v>0.9997368136916577</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2281428822424231</v>
+        <v>0.9866196626731483</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002142658949408117</v>
+        <v>0.1483179312129698</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9892838418166772</v>
+        <v>0.5110966433639121</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6415145445640611</v>
+        <v>0.1696494528115469</v>
       </c>
       <c r="F32" t="n">
-        <v>0.328414664960871</v>
+        <v>0.5405670291137384</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9313107683774501</v>
+        <v>0.03648744225958254</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9984281410215167</v>
+        <v>0.0004874695016289007</v>
       </c>
       <c r="I32" t="n">
-        <v>0.999680556390263</v>
+        <v>0.0001134643657700468</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9968046983587904</v>
+        <v>0.0006343479725518236</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9805426594415887</v>
+        <v>0.9951067369458695</v>
       </c>
       <c r="L32" t="n">
-        <v>0.7022101762748292</v>
+        <v>0.8288824356664778</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9922698642846161</v>
+        <v>0.1047901034157944</v>
       </c>
       <c r="N32" t="n">
-        <v>0.7499211237696489</v>
+        <v>0.8841582498683513</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02606002496218364</v>
+        <v>0.06639447097505211</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1896064044687439</v>
+        <v>0.1919135321169666</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3838143220703791</v>
+        <v>0.9066923320434261</v>
       </c>
       <c r="R32" t="n">
-        <v>0.002095803619630718</v>
+        <v>0.001605954959723273</v>
       </c>
       <c r="S32" t="n">
-        <v>100.8265836550247</v>
+        <v>85.22006344389274</v>
       </c>
       <c r="T32" t="n">
-        <v>92.81505412311685</v>
+        <v>78.33115813358526</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2565573225821766</v>
+        <v>0.1039665811559621</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.07997044500571515</v>
+        <v>-0.01944799489059839</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.01733814872999085</v>
+        <v>0.9567355276399002</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09079336321042705</v>
+        <v>0.9357616019582427</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008652680375735137</v>
+        <v>0.04000654676169744</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9992764404514427</v>
+        <v>0.5292254301627886</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6151241479264836</v>
+        <v>0.1709160640146979</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9878243176399171</v>
+        <v>0.5571894481292915</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9269382942483839</v>
+        <v>0.06157921135978444</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9987967146334515</v>
+        <v>0.002083222045312408</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9945395596337921</v>
+        <v>0.001737925525692884</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9967879092034531</v>
+        <v>0.00170714566778361</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9798911509862864</v>
+        <v>0.9009256013965526</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8621352393635198</v>
+        <v>0.9828793059885484</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9922450401495122</v>
+        <v>0.2762734614966121</v>
       </c>
       <c r="N33" t="n">
-        <v>0.7406818294886924</v>
+        <v>0.9126059660655917</v>
       </c>
       <c r="O33" t="n">
-        <v>0.004194578327152097</v>
+        <v>0.01266931198187116</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2337892463749512</v>
+        <v>0.1924067309798144</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3803882255443123</v>
+        <v>0.922418507391506</v>
       </c>
       <c r="R33" t="n">
-        <v>0.002395643856939281</v>
+        <v>0.001608369702727073</v>
       </c>
       <c r="S33" t="n">
-        <v>99.94150679806637</v>
+        <v>86.09789104492484</v>
       </c>
       <c r="T33" t="n">
-        <v>92.84816079842182</v>
+        <v>78.48682379721224</v>
       </c>
       <c r="U33" t="n">
-        <v>0.2562413789797899</v>
+        <v>0.104123376751472</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.06744847833731234</v>
+        <v>-0.01806965713204105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1353941551388278</v>
+        <v>0.9884978342961481</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02764533320423102</v>
+        <v>0.8336008994047902</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03542658113985735</v>
+        <v>0.03672756289633349</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9966785147558392</v>
+        <v>0.4782571164944052</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6229050119978586</v>
+        <v>0.1774352748350146</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5472872961717072</v>
+        <v>0.2232505040749035</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9253461479735239</v>
+        <v>0.02320330883765131</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9993956899357046</v>
+        <v>0.000997654652113937</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9944596584908747</v>
+        <v>0.001521485072108288</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9976329494769673</v>
+        <v>0.002199325310206804</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9263424168813306</v>
+        <v>0.6815083545807963</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8481656188744647</v>
+        <v>0.8083176938922935</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9978540709689463</v>
+        <v>0.1047279814329418</v>
       </c>
       <c r="N34" t="n">
-        <v>0.733265378532816</v>
+        <v>0.9184476879483972</v>
       </c>
       <c r="O34" t="n">
-        <v>0.004128239663196056</v>
+        <v>0.001591242997849344</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0006955879178518198</v>
+        <v>0.1459748150561715</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.380743321477999</v>
+        <v>0.9100092925098162</v>
       </c>
       <c r="R34" t="n">
-        <v>0.002361994625797502</v>
+        <v>0.001595854629571205</v>
       </c>
       <c r="S34" t="n">
-        <v>100.1050481029867</v>
+        <v>85.35367170972317</v>
       </c>
       <c r="T34" t="n">
-        <v>92.85455164859934</v>
+        <v>78.36720797073755</v>
       </c>
       <c r="U34" t="n">
-        <v>0.2563312856276044</v>
+        <v>0.1040938057226551</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.06973964412441616</v>
+        <v>-0.002012230010159946</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9973681817948691</v>
+        <v>0.9800432484564986</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9989188763073618</v>
+        <v>0.9940411173369198</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02237076829100845</v>
+        <v>0.0265897473266952</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0002736163471463065</v>
+        <v>0.2126960247070439</v>
       </c>
       <c r="E35" t="n">
-        <v>0.999779804139921</v>
+        <v>0.5697542006436076</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4603021853765661</v>
+        <v>0.2618713587977574</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03869778844589326</v>
+        <v>0.002864591903030365</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9938144214043514</v>
+        <v>0.09749997767978465</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1413102452354512</v>
+        <v>0.001164777074916076</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9998406398927534</v>
+        <v>0.01045487737557615</v>
       </c>
       <c r="K35" t="n">
-        <v>0.949405101548911</v>
+        <v>0.7784484654204347</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02039513740502446</v>
+        <v>0.8417558656616906</v>
       </c>
       <c r="M35" t="n">
-        <v>0.9998140454683379</v>
+        <v>0.1206845811882115</v>
       </c>
       <c r="N35" t="n">
-        <v>0.9979023341448685</v>
+        <v>0.7255787664975321</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1555369061369866</v>
+        <v>0.0002622576176594558</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06670665482862979</v>
+        <v>0.03378667198076014</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5741121457556719</v>
+        <v>0.883996862708502</v>
       </c>
       <c r="R35" t="n">
-        <v>0.001735523303192344</v>
+        <v>0.001565275655050387</v>
       </c>
       <c r="S35" t="n">
-        <v>99.98288293672834</v>
+        <v>86.02487451100768</v>
       </c>
       <c r="T35" t="n">
-        <v>88.19705624598122</v>
+        <v>78.88557721162852</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1993125627990938</v>
+        <v>0.1079195522559744</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.06756214409613612</v>
+        <v>-0.0001332141417967822</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9770999494298992</v>
+        <v>0.7991760775833763</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1256055821061524</v>
+        <v>0.9897098792511461</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001449774528844844</v>
+        <v>0.04279095509632968</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9982067961104693</v>
+        <v>0.5164713410973332</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6577503573696515</v>
+        <v>0.09579613425675508</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5473973559249092</v>
+        <v>0.2529548378882523</v>
       </c>
       <c r="G36" t="n">
-        <v>0.925231195234831</v>
+        <v>0.02703828040946609</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9996072468117218</v>
+        <v>0.04063578156800889</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9992632089582991</v>
+        <v>0.001576111477348238</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9968005157458338</v>
+        <v>0.0004793008514002951</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9617606853123222</v>
+        <v>0.2902436601454536</v>
       </c>
       <c r="L36" t="n">
-        <v>0.839317246869455</v>
+        <v>0.7879741765451157</v>
       </c>
       <c r="M36" t="n">
-        <v>0.999053835384706</v>
+        <v>0.09563012201972407</v>
       </c>
       <c r="N36" t="n">
-        <v>0.79119803650799</v>
+        <v>0.7996303784301834</v>
       </c>
       <c r="O36" t="n">
-        <v>0.009253930552199072</v>
+        <v>0.005249593889460981</v>
       </c>
       <c r="P36" t="n">
-        <v>0.04025397878355082</v>
+        <v>0.3247342122249458</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4051375199407168</v>
+        <v>0.9025955194751965</v>
       </c>
       <c r="R36" t="n">
-        <v>0.002064986987515525</v>
+        <v>0.001642124424349</v>
       </c>
       <c r="S36" t="n">
-        <v>101.1217860502762</v>
+        <v>84.86412311420595</v>
       </c>
       <c r="T36" t="n">
-        <v>92.80232668884219</v>
+        <v>78.45954485970304</v>
       </c>
       <c r="U36" t="n">
-        <v>0.2566072252847657</v>
+        <v>0.1054801203240985</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.07485828679200612</v>
+        <v>-0.007641026253898502</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9992061001610701</v>
+        <v>0.9840502709645186</v>
       </c>
       <c r="B37" t="n">
-        <v>0.994033969578179</v>
+        <v>0.9994077279540365</v>
       </c>
       <c r="C37" t="n">
-        <v>0.009584757299306169</v>
+        <v>0.02613070285352267</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005671470032637768</v>
+        <v>0.01066799654075072</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9998645559665976</v>
+        <v>0.5898328724501075</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4411811965172787</v>
+        <v>0.04801123317939865</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001516559459925589</v>
+        <v>0.07601367897160191</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2648495669950142</v>
+        <v>0.0009096630628189701</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04191149620891059</v>
+        <v>0.0001792391210641191</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0128183412691229</v>
+        <v>6.661892594808077e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1936516800218033</v>
+        <v>0.8791283365318425</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01000196865565566</v>
+        <v>0.7687431660269524</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9926028628405995</v>
+        <v>0.3144805910199995</v>
       </c>
       <c r="N37" t="n">
-        <v>0.9995909839103154</v>
+        <v>0.8662336309315991</v>
       </c>
       <c r="O37" t="n">
-        <v>0.06746328370812477</v>
+        <v>0.006616896953376092</v>
       </c>
       <c r="P37" t="n">
-        <v>0.08501069236024077</v>
+        <v>0.09563471284950403</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6637179846753362</v>
+        <v>0.8668406311886619</v>
       </c>
       <c r="R37" t="n">
-        <v>0.001574479842748481</v>
+        <v>0.001536370276702697</v>
       </c>
       <c r="S37" t="n">
-        <v>92.13283381519676</v>
+        <v>87.11066093680613</v>
       </c>
       <c r="T37" t="n">
-        <v>81.03054308765061</v>
+        <v>78.73796311135625</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1157982786328659</v>
+        <v>0.1039636032670705</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.0321516616705061</v>
+        <v>0.01670185052815996</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9974293462048105</v>
+        <v>0.9801132433876981</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07687954168562311</v>
+        <v>0.9922422184723385</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001449774528844844</v>
+        <v>0.02757724179102842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06722508198709265</v>
+        <v>0.2126960247070439</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6540850209150822</v>
+        <v>0.5892593732842432</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5559594595048494</v>
+        <v>0.2540811055243962</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8868366093516649</v>
+        <v>0.01575287903006768</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9984849683256082</v>
+        <v>0.00100304090463487</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9992632089582991</v>
+        <v>0.001330109358956885</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9860614725987198</v>
+        <v>0.01045487737557615</v>
       </c>
       <c r="K38" t="n">
-        <v>0.919523396065119</v>
+        <v>0.7784484654204347</v>
       </c>
       <c r="L38" t="n">
-        <v>0.6977519913893681</v>
+        <v>0.8251792343473372</v>
       </c>
       <c r="M38" t="n">
-        <v>0.9997876830457308</v>
+        <v>0.1206845811882115</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7883417759120075</v>
+        <v>0.7255787664975321</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0006034923532511763</v>
+        <v>0.0002505844631093223</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1534559643730239</v>
+        <v>0.03378667198076014</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4523882949455889</v>
+        <v>0.8807191540890951</v>
       </c>
       <c r="R38" t="n">
-        <v>0.00190273616725566</v>
+        <v>0.001551120725517973</v>
       </c>
       <c r="S38" t="n">
-        <v>100.7097962139611</v>
+        <v>85.82280443063929</v>
       </c>
       <c r="T38" t="n">
-        <v>92.71179615926989</v>
+        <v>78.52186521044568</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2558236504004956</v>
+        <v>0.1043886142557368</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.0751944921286031</v>
+        <v>-0.0001255332705098963</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.991078046883508</v>
+        <v>0.9798489222216212</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9986140965237913</v>
+        <v>0.9787415258478237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006734220722452297</v>
+        <v>0.02499112041120528</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000218763556765476</v>
+        <v>0.6181742983087217</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9987776351943148</v>
+        <v>0.003435520013741781</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3925276147907769</v>
+        <v>0.1640903363036559</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05828717894475755</v>
+        <v>0.03600250885957356</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9581561408974842</v>
+        <v>0.001985643882320624</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8368137181402409</v>
+        <v>0.0007694345581287277</v>
       </c>
       <c r="J39" t="n">
-        <v>0.00637050149332935</v>
+        <v>0.0008083887988940722</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9396549663492146</v>
+        <v>0.7177769978332944</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08083617180144698</v>
+        <v>0.7072149495372683</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9971669002904198</v>
+        <v>1.621719581565428e-05</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9982641645367315</v>
+        <v>0.7210673962631582</v>
       </c>
       <c r="O39" t="n">
-        <v>0.05536383982563109</v>
+        <v>0.04048630846018904</v>
       </c>
       <c r="P39" t="n">
-        <v>0.02282718301620083</v>
+        <v>0.3504686246727425</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5753069335361081</v>
+        <v>0.8766063502630369</v>
       </c>
       <c r="R39" t="n">
-        <v>0.001743122314365931</v>
+        <v>0.00163994390888538</v>
       </c>
       <c r="S39" t="n">
-        <v>97.61045451240533</v>
+        <v>83.94895580316715</v>
       </c>
       <c r="T39" t="n">
-        <v>86.79632854647525</v>
+        <v>78.17110185211465</v>
       </c>
       <c r="U39" t="n">
-        <v>0.180535493032877</v>
+        <v>0.1040515737316848</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.05792470868217227</v>
+        <v>-0.005615344740752311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.0397163355190584</v>
+        <v>0.9228075545568954</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08958335885015076</v>
+        <v>0.9650579008174955</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001623783871296121</v>
+        <v>0.0210707913365874</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9980460172995805</v>
+        <v>0.1907981592256972</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6134696457036709</v>
+        <v>0.5462911118123086</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9710764697520987</v>
+        <v>0.2268777204247407</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9268610826522544</v>
+        <v>0.03162015550760103</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9986907432309983</v>
+        <v>0.0006457491621691754</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9946696335639069</v>
+        <v>0.001604383542733269</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9944425411700145</v>
+        <v>5.96572890378521e-05</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9638394261762296</v>
+        <v>0.8815596964776162</v>
       </c>
       <c r="L40" t="n">
-        <v>0.8618732140485976</v>
+        <v>0.8462715494570048</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9940802695546134</v>
+        <v>0.01596894561091139</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7405421861611076</v>
+        <v>0.007344138633489983</v>
       </c>
       <c r="O40" t="n">
-        <v>0.003847987405660254</v>
+        <v>0.01458934171543912</v>
       </c>
       <c r="P40" t="n">
-        <v>0.005736565652366424</v>
+        <v>0.08814413583833716</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3795884053125732</v>
+        <v>0.7932909467896935</v>
       </c>
       <c r="R40" t="n">
-        <v>0.002384608006381759</v>
+        <v>0.001561028802023182</v>
       </c>
       <c r="S40" t="n">
-        <v>99.98430549184376</v>
+        <v>84.03999289088058</v>
       </c>
       <c r="T40" t="n">
-        <v>92.83748561234106</v>
+        <v>77.99216148340174</v>
       </c>
       <c r="U40" t="n">
-        <v>0.2560881703732849</v>
+        <v>0.1040057667937353</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.067995996667034</v>
+        <v>-0.009315903196627461</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.06488094193155323</v>
+        <v>0.9978167337212328</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2780716316906117</v>
+        <v>0.05406400343010379</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008657094546126773</v>
+        <v>0.05846355481118966</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9990988164208331</v>
+        <v>0.04793125646856555</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6094796462811812</v>
+        <v>0.5802976543275545</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5423265136738359</v>
+        <v>0.05327671092991038</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9557545942683856</v>
+        <v>0.03801500884955228</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9984451341234312</v>
+        <v>0.002555969523244521</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9946839443977825</v>
+        <v>0.000741124972924604</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9969978343360167</v>
+        <v>0.0004498194457086073</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9275811809611786</v>
+        <v>0.9048497642819009</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8481656188744647</v>
+        <v>0.1227211314087809</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9941250583606085</v>
+        <v>0.01750765928188724</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7407296893889534</v>
+        <v>0.03803697843004868</v>
       </c>
       <c r="O41" t="n">
-        <v>0.004876093523879788</v>
+        <v>0.005913849642659214</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2337892463749512</v>
+        <v>0.1738239976784183</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3678900010671924</v>
+        <v>0.8211466635406272</v>
       </c>
       <c r="R41" t="n">
-        <v>0.002384486127195333</v>
+        <v>0.00164019790665442</v>
       </c>
       <c r="S41" t="n">
-        <v>100.0151305321288</v>
+        <v>83.68984415729733</v>
       </c>
       <c r="T41" t="n">
-        <v>92.86126928526234</v>
+        <v>77.95256326014108</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2562415862836091</v>
+        <v>0.1040581302683288</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.0674486701924973</v>
+        <v>-0.009084065546077061</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9998150783562831</v>
+        <v>0.04977374086052855</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01314712953230015</v>
+        <v>0.1287620707691719</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002027734179247558</v>
+        <v>0.1802191665012496</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9900022918626713</v>
+        <v>0.000219124211752143</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5128089978340862</v>
+        <v>0.5902030972202487</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4228067853355507</v>
+        <v>0.1210800873904846</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9143798341519568</v>
+        <v>0.03051227035073526</v>
       </c>
       <c r="H42" t="n">
-        <v>0.981226877923572</v>
+        <v>0.00044498599132589</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9976844039794271</v>
+        <v>0.0001470340314110864</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9944726405848137</v>
+        <v>9.577960559800555e-05</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9185993013967297</v>
+        <v>0.03909373183555337</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0836215585533065</v>
+        <v>0.1585416781642095</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9976998930093869</v>
+        <v>0.001220218756749622</v>
       </c>
       <c r="N42" t="n">
-        <v>0.9986082843689047</v>
+        <v>0.0005485504284810996</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03235911899469074</v>
+        <v>0.005585861201190083</v>
       </c>
       <c r="P42" t="n">
-        <v>0.2291402138348491</v>
+        <v>0.1259677217202169</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4760414804479351</v>
+        <v>0.7554895180726408</v>
       </c>
       <c r="R42" t="n">
-        <v>0.001968987953391507</v>
+        <v>0.001668631262643311</v>
       </c>
       <c r="S42" t="n">
-        <v>100.4085661057114</v>
+        <v>83.80969268899244</v>
       </c>
       <c r="T42" t="n">
-        <v>92.7577097479592</v>
+        <v>77.81429382109664</v>
       </c>
       <c r="U42" t="n">
-        <v>0.255138842305304</v>
+        <v>0.1039467215730022</v>
       </c>
       <c r="V42" t="n">
-        <v>-0.07039099997436146</v>
+        <v>-0.006832224741209338</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9988391458193571</v>
+        <v>0.9824483017069655</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9973632921294844</v>
+        <v>0.8481301102613188</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01152585986346035</v>
+        <v>0.009321726500097403</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001868991154373075</v>
+        <v>0.1707905524497138</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9992626735160465</v>
+        <v>0.1730569465162186</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3972009365106576</v>
+        <v>0.03944910126121402</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0289595800570354</v>
+        <v>0.0364883003869999</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0004467011136394493</v>
+        <v>0.0005008639483952305</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0232594325754284</v>
+        <v>0.001197858002672558</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8923466509581235</v>
+        <v>0.006300862690440242</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4835950959665201</v>
+        <v>0.9692490870151822</v>
       </c>
       <c r="L43" t="n">
-        <v>0.005054614227179263</v>
+        <v>0.8273457291847012</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9962685439329994</v>
+        <v>0.00225546899083731</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9996046694333451</v>
+        <v>0.6809540548851317</v>
       </c>
       <c r="O43" t="n">
-        <v>0.01755910295179975</v>
+        <v>0.07345486678076663</v>
       </c>
       <c r="P43" t="n">
-        <v>0.194078520259973</v>
+        <v>0.07025932129902537</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6460218029152344</v>
+        <v>0.8477720546571688</v>
       </c>
       <c r="R43" t="n">
-        <v>0.001587150441298105</v>
+        <v>0.00158750264028881</v>
       </c>
       <c r="S43" t="n">
-        <v>94.9404844996441</v>
+        <v>84.01973093124593</v>
       </c>
       <c r="T43" t="n">
-        <v>83.11042306959679</v>
+        <v>78.17181157630139</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1377396216119199</v>
+        <v>0.1042136108557367</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.06346668172676712</v>
+        <v>0.002221526459921574</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.997295884836923</v>
+        <v>0.9578913305730684</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08877201124919532</v>
+        <v>0.151611654539531</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009118755115198895</v>
+        <v>0.02360466085485084</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9888298165407335</v>
+        <v>0.4775699502380378</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6534001396358086</v>
+        <v>0.00340808358958776</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3920976261561004</v>
+        <v>0.3553988460281686</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09093767631857952</v>
+        <v>0.04937003363168069</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9935135753854555</v>
+        <v>3.704097673858523e-05</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9945437207755227</v>
+        <v>0.00224411522873546</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9964728401708877</v>
+        <v>0.0006091589627542385</v>
       </c>
       <c r="K44" t="n">
-        <v>0.953726804957658</v>
+        <v>0.7306245549981559</v>
       </c>
       <c r="L44" t="n">
-        <v>0.7001485920380706</v>
+        <v>0.9334935053901265</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9998175639283426</v>
+        <v>0.001292350384811541</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7988923646701896</v>
+        <v>0.02339254832359021</v>
       </c>
       <c r="O44" t="n">
-        <v>0.005627139880431847</v>
+        <v>0.01912919036479028</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2088169796820395</v>
+        <v>0.1872238668208532</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.4076423795058634</v>
+        <v>0.7895150991246456</v>
       </c>
       <c r="R44" t="n">
-        <v>0.002064710304083878</v>
+        <v>0.001593459705059437</v>
       </c>
       <c r="S44" t="n">
-        <v>100.8183492775498</v>
+        <v>82.75387180899835</v>
       </c>
       <c r="T44" t="n">
-        <v>92.77793429117473</v>
+        <v>78.07447018428273</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2558731004498033</v>
+        <v>0.1040269870276676</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.07356888338887009</v>
+        <v>-0.003663253701081465</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9956269717175268</v>
+        <v>0.9559866125835538</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9952876779020693</v>
+        <v>0.9357616019582427</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01035432875897692</v>
+        <v>0.038940843454331</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003722557607666986</v>
+        <v>0.5191890555787058</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9993959252019207</v>
+        <v>0.007960125304493512</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2215875835177068</v>
+        <v>0.5571894481292915</v>
       </c>
       <c r="G45" t="n">
-        <v>0.002790109377025399</v>
+        <v>0.0356038203834388</v>
       </c>
       <c r="H45" t="n">
-        <v>0.009409716993867214</v>
+        <v>0.002083222045312408</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8846419566797934</v>
+        <v>0.001716058026429726</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01742370274243471</v>
+        <v>0.001720758921414471</v>
       </c>
       <c r="K45" t="n">
-        <v>0.917483746591372</v>
+        <v>0.9800844053824935</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01065370615562873</v>
+        <v>0.984135631680621</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9997012413595335</v>
+        <v>0.2616804452800505</v>
       </c>
       <c r="N45" t="n">
-        <v>0.9978857905657752</v>
+        <v>0.9126059660655917</v>
       </c>
       <c r="O45" t="n">
-        <v>0.002730596296169783</v>
+        <v>0.01072512049886468</v>
       </c>
       <c r="P45" t="n">
-        <v>0.09089849661436608</v>
+        <v>0.3460265402588786</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6454853695400651</v>
+        <v>0.9104686480571662</v>
       </c>
       <c r="R45" t="n">
-        <v>0.00161371554664298</v>
+        <v>0.001628555051914234</v>
       </c>
       <c r="S45" t="n">
-        <v>94.19327172873425</v>
+        <v>85.50000600369172</v>
       </c>
       <c r="T45" t="n">
-        <v>82.9995692586554</v>
+        <v>78.33131352646097</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1376005204497077</v>
+        <v>0.104123082539997</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.05018966190506332</v>
+        <v>-0.02666543369564772</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1214742303967113</v>
+        <v>0.9957012977989705</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2410339362946718</v>
+        <v>0.9867953760266609</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0006986884710943947</v>
+        <v>0.0173111048174003</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9967079949284966</v>
+        <v>0.03000745377173866</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5845693678181882</v>
+        <v>0.7596784652025251</v>
       </c>
       <c r="F46" t="n">
-        <v>0.547292684684347</v>
+        <v>0.01731917553234055</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9242850581541546</v>
+        <v>0.05673366658138557</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9984489575844235</v>
+        <v>0.0009153873676869419</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9945619087944666</v>
+        <v>0.0007154711283865599</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9969632745431642</v>
+        <v>0.003018664014424813</v>
       </c>
       <c r="K46" t="n">
-        <v>0.928234808712632</v>
+        <v>0.8941738186535667</v>
       </c>
       <c r="L46" t="n">
-        <v>0.8481612538209077</v>
+        <v>0.7803853779306911</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9871958844885439</v>
+        <v>0.02020408006632324</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7340977636396833</v>
+        <v>0.9105887793254501</v>
       </c>
       <c r="O46" t="n">
-        <v>0.004876093523879788</v>
+        <v>0.002614338747335088</v>
       </c>
       <c r="P46" t="n">
-        <v>0.2337892463749512</v>
+        <v>0.118901611343393</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3644126892157942</v>
+        <v>0.823185676800421</v>
       </c>
       <c r="R46" t="n">
-        <v>0.002350011596749016</v>
+        <v>0.001527872822822901</v>
       </c>
       <c r="S46" t="n">
-        <v>100.0128505783245</v>
+        <v>86.22414228512955</v>
       </c>
       <c r="T46" t="n">
-        <v>92.83551388764204</v>
+        <v>78.54451591060716</v>
       </c>
       <c r="U46" t="n">
-        <v>0.256231533546241</v>
+        <v>0.104091251572303</v>
       </c>
       <c r="V46" t="n">
-        <v>-0.0688798825543134</v>
+        <v>-0.009154750824973232</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9960433500624674</v>
+        <v>0.1513958849762362</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9946842606792706</v>
+        <v>0.997613230025453</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02286077386884832</v>
+        <v>0.2215823460322237</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00556406638151051</v>
+        <v>0.01748071623317371</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9997649310253549</v>
+        <v>0.8774690543476584</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4170407621215899</v>
+        <v>0.2138549156624541</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02644105122474072</v>
+        <v>0.04121531216489087</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9690865952005627</v>
+        <v>0.0002914374316459506</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02590656596599673</v>
+        <v>0.0005747408784498718</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9955378407886314</v>
+        <v>0.002292355635354426</v>
       </c>
       <c r="K47" t="n">
-        <v>0.208427890745229</v>
+        <v>0.1874143694178126</v>
       </c>
       <c r="L47" t="n">
-        <v>0.005892495703321455</v>
+        <v>0.159712216150928</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9979351413519932</v>
+        <v>0.002340655163378613</v>
       </c>
       <c r="N47" t="n">
-        <v>0.9987721753881215</v>
+        <v>0.001567055494911197</v>
       </c>
       <c r="O47" t="n">
-        <v>0.009563007118940205</v>
+        <v>0.01435452221019721</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1610716881369706</v>
+        <v>0.1756475270860702</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.5835052690290859</v>
+        <v>0.7620325381466466</v>
       </c>
       <c r="R47" t="n">
-        <v>0.001720453523567156</v>
+        <v>0.001557012700930176</v>
       </c>
       <c r="S47" t="n">
-        <v>99.86001704499125</v>
+        <v>85.13566057975045</v>
       </c>
       <c r="T47" t="n">
-        <v>87.63772240821702</v>
+        <v>77.75601775766168</v>
       </c>
       <c r="U47" t="n">
-        <v>0.19014476289564</v>
+        <v>0.1040369495093114</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.06338073383668247</v>
+        <v>-0.007070719988542098</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9350073676722226</v>
+        <v>0.9576273393779431</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2281428822424231</v>
+        <v>0.952479077322229</v>
       </c>
       <c r="C48" t="n">
-        <v>0.002142658949408117</v>
+        <v>0.02562205014157817</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9892850762041447</v>
+        <v>0.3949997409303252</v>
       </c>
       <c r="E48" t="n">
-        <v>0.698295637670401</v>
+        <v>0.2350763707676755</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3203675969050387</v>
+        <v>0.2972718652166874</v>
       </c>
       <c r="G48" t="n">
-        <v>0.893415184808577</v>
+        <v>0.006194121622999094</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9984281410215167</v>
+        <v>0.0008640525218546636</v>
       </c>
       <c r="I48" t="n">
-        <v>0.999680556390263</v>
+        <v>0.001123624851174781</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9940201127475436</v>
+        <v>0.001038417619394854</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9644956228891358</v>
+        <v>0.6635758220175165</v>
       </c>
       <c r="L48" t="n">
-        <v>0.7030137275144486</v>
+        <v>0.8301066399134343</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9922698642846161</v>
+        <v>0.285748522535136</v>
       </c>
       <c r="N48" t="n">
-        <v>0.7935817587043154</v>
+        <v>0.7221667339650244</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02606002496218364</v>
+        <v>0.01403576989874623</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1896064044687439</v>
+        <v>0.1824447131375267</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.4002756457468567</v>
+        <v>0.9246759470388183</v>
       </c>
       <c r="R48" t="n">
-        <v>0.002102907984852383</v>
+        <v>0.00159009866597178</v>
       </c>
       <c r="S48" t="n">
-        <v>101.0868610260035</v>
+        <v>85.89060633210779</v>
       </c>
       <c r="T48" t="n">
-        <v>92.83303940052294</v>
+        <v>78.50262404469953</v>
       </c>
       <c r="U48" t="n">
-        <v>0.2563733638093091</v>
+        <v>0.1040319645677162</v>
       </c>
       <c r="V48" t="n">
-        <v>-0.07991117380502191</v>
+        <v>0.01431018614984202</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9926912510560644</v>
+        <v>0.9969558782071791</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9995664091385184</v>
+        <v>0.9445319899085938</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01089134745703247</v>
+        <v>0.05905269407071664</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005529354591656275</v>
+        <v>0.05397057314206366</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9974835703793565</v>
+        <v>0.5283181172286644</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3934550487033459</v>
+        <v>0.2156582730109432</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04062642552323492</v>
+        <v>0.1374564476138814</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2528540186446684</v>
+        <v>1.603075047797338e-05</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9964973011753508</v>
+        <v>5.722677473494597e-05</v>
       </c>
       <c r="J49" t="n">
-        <v>0.02690541784965769</v>
+        <v>0.0006553556221273163</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5535974172196418</v>
+        <v>0.2532876052151317</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01092684180710827</v>
+        <v>0.7748535531049221</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9998679214827519</v>
+        <v>0.3588056749420891</v>
       </c>
       <c r="N49" t="n">
-        <v>0.9997303612116279</v>
+        <v>0.8859368075248684</v>
       </c>
       <c r="O49" t="n">
-        <v>0.03688904074466647</v>
+        <v>0.005927134553454907</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1864434075908106</v>
+        <v>0.1000552304409194</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6198028398050193</v>
+        <v>0.8750669263283413</v>
       </c>
       <c r="R49" t="n">
-        <v>0.001663823575795677</v>
+        <v>0.001544417708473157</v>
       </c>
       <c r="S49" t="n">
-        <v>95.5420940139804</v>
+        <v>87.75863740148239</v>
       </c>
       <c r="T49" t="n">
-        <v>84.58938332211306</v>
+        <v>78.75063231124186</v>
       </c>
       <c r="U49" t="n">
-        <v>0.1544000432934739</v>
+        <v>0.1039481130637518</v>
       </c>
       <c r="V49" t="n">
-        <v>-0.05285888871526458</v>
+        <v>0.009542308115030845</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9983019947863069</v>
+        <v>0.9987500834914959</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9984934015330477</v>
+        <v>0.9904204251516183</v>
       </c>
       <c r="C50" t="n">
-        <v>0.009872766950983155</v>
+        <v>0.1522349250668455</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0001495811917181017</v>
+        <v>0.4559814346394253</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9996084317710472</v>
+        <v>0.06051846680116149</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3986615978634492</v>
+        <v>0.6745182074391077</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0005927510928008875</v>
+        <v>0.006526199394504256</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1330100149309013</v>
+        <v>0.0005132454531310565</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9994564351284887</v>
+        <v>0.0001162171800218359</v>
       </c>
       <c r="J50" t="n">
-        <v>0.023347096732654</v>
+        <v>0.002993803143645444</v>
       </c>
       <c r="K50" t="n">
-        <v>0.496509534840584</v>
+        <v>0.7417210039106503</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02565711349727417</v>
+        <v>0.8336797863861483</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9986904408003107</v>
+        <v>0.05759629002143749</v>
       </c>
       <c r="N50" t="n">
-        <v>0.9982159601671874</v>
+        <v>0.804341594070445</v>
       </c>
       <c r="O50" t="n">
-        <v>0.008039887878517366</v>
+        <v>0.01415846453440097</v>
       </c>
       <c r="P50" t="n">
-        <v>0.2111658674985795</v>
+        <v>0.1320118769621067</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6311255825499386</v>
+        <v>0.8942974945480167</v>
       </c>
       <c r="R50" t="n">
-        <v>0.001644680658790761</v>
+        <v>0.00161153692489552</v>
       </c>
       <c r="S50" t="n">
-        <v>95.17595289201201</v>
+        <v>84.47921996458773</v>
       </c>
       <c r="T50" t="n">
-        <v>84.05856790041118</v>
+        <v>78.20103965476113</v>
       </c>
       <c r="U50" t="n">
-        <v>0.1483266423342129</v>
+        <v>0.1040537886444871</v>
       </c>
       <c r="V50" t="n">
-        <v>-0.0509669059181016</v>
+        <v>-0.02344028103132027</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9993553939148913</v>
+        <v>0.9909326591156757</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9989047501899347</v>
+        <v>0.9974497575654366</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02275620547055832</v>
+        <v>0.07878641183178267</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0003508307853775146</v>
+        <v>0.04022644776275207</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9998868847793018</v>
+        <v>0.576470364952667</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3916113170089406</v>
+        <v>0.576744279454138</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05629697772788</v>
+        <v>0.1809071882745341</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9207247711689995</v>
+        <v>0.002655283848610104</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0690608398040588</v>
+        <v>0.0007092012682240476</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9984095524817225</v>
+        <v>0.002950767624426075</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9759589534160753</v>
+        <v>0.9330933429356716</v>
       </c>
       <c r="L51" t="n">
-        <v>0.005309850111432833</v>
+        <v>0.781957733879088</v>
       </c>
       <c r="M51" t="n">
-        <v>0.9998229237569637</v>
+        <v>0.3621132366557377</v>
       </c>
       <c r="N51" t="n">
-        <v>0.9988123472374483</v>
+        <v>0.728710282857892</v>
       </c>
       <c r="O51" t="n">
-        <v>0.05919791272923558</v>
+        <v>0.002104682328862444</v>
       </c>
       <c r="P51" t="n">
-        <v>0.08708899269738658</v>
+        <v>0.102428440272316</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.5811810715428325</v>
+        <v>0.8736714181023468</v>
       </c>
       <c r="R51" t="n">
-        <v>0.001716647931807495</v>
+        <v>0.001541507862224424</v>
       </c>
       <c r="S51" t="n">
-        <v>99.66339756602439</v>
+        <v>86.90837735683327</v>
       </c>
       <c r="T51" t="n">
-        <v>87.51734325225485</v>
+        <v>78.73523668053835</v>
       </c>
       <c r="U51" t="n">
-        <v>0.1906925866043218</v>
+        <v>0.1041520774817748</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.0662928038562948</v>
+        <v>-0.01776475770656712</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9973114713878247</v>
+        <v>0.9885019775846386</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9983218693550475</v>
+        <v>0.9945401623798511</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01039482177433577</v>
+        <v>0.03759894673072352</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0001824689576315312</v>
+        <v>0.4858187576320915</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9982201070804857</v>
+        <v>0.001734416227356428</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2921755300322365</v>
+        <v>0.5788419313025801</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001030277424783042</v>
+        <v>0.05107325421077697</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1650318611998975</v>
+        <v>0.003202557489713802</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0163838415739691</v>
+        <v>0.001572780675900718</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005394084143490343</v>
+        <v>0.001516703206833088</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1673693180778414</v>
+        <v>0.2544468151109746</v>
       </c>
       <c r="L52" t="n">
-        <v>0.009982764405716998</v>
+        <v>0.8688459397197615</v>
       </c>
       <c r="M52" t="n">
-        <v>0.9997885722316948</v>
+        <v>0.107393031791016</v>
       </c>
       <c r="N52" t="n">
-        <v>0.9982675636643504</v>
+        <v>0.8278608397783066</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05511854920886055</v>
+        <v>0.02657760903798638</v>
       </c>
       <c r="P52" t="n">
-        <v>0.07923882099290484</v>
+        <v>0.1923399522603317</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6744477624330656</v>
+        <v>0.8958496909024645</v>
       </c>
       <c r="R52" t="n">
-        <v>0.001556303362505496</v>
+        <v>0.001621590308684364</v>
       </c>
       <c r="S52" t="n">
-        <v>91.47327800467815</v>
+        <v>84.62222855999065</v>
       </c>
       <c r="T52" t="n">
-        <v>80.55955849293082</v>
+        <v>78.21755013151419</v>
       </c>
       <c r="U52" t="n">
-        <v>0.1107846839981574</v>
+        <v>0.1041513077209345</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.03016175418941209</v>
+        <v>-0.0184316619492285</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9950913837005328</v>
+        <v>0.9212447311902269</v>
       </c>
       <c r="B53" t="n">
-        <v>0.999542586345888</v>
+        <v>0.244392611022861</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02237076829100845</v>
+        <v>0.02072149082096718</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0003428278999777487</v>
+        <v>0.0176785199295454</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9939993279026151</v>
+        <v>0.07924725607008995</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2655576143503666</v>
+        <v>0.007850893333939971</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02667547683034463</v>
+        <v>0.01447669077206902</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9708405953947432</v>
+        <v>1.692477983690141e-05</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1413102452354512</v>
+        <v>0.0004807188317377055</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9989997437577168</v>
+        <v>3.583036965119088e-05</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8995046046978337</v>
+        <v>0.7404673179307701</v>
       </c>
       <c r="L53" t="n">
-        <v>0.005045856186915807</v>
+        <v>0.8390310681643648</v>
       </c>
       <c r="M53" t="n">
-        <v>0.9970746374212587</v>
+        <v>0.05415020830395168</v>
       </c>
       <c r="N53" t="n">
-        <v>0.9979214257578551</v>
+        <v>0.01615740632724377</v>
       </c>
       <c r="O53" t="n">
-        <v>0.06129308837115469</v>
+        <v>0.02753345869997339</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06670665482862979</v>
+        <v>0.1295920421697765</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.5740756619746494</v>
+        <v>0.7712510822050769</v>
       </c>
       <c r="R53" t="n">
-        <v>0.001729105959862449</v>
+        <v>0.001589002730438877</v>
       </c>
       <c r="S53" t="n">
-        <v>99.91467712877797</v>
+        <v>82.66919667847992</v>
       </c>
       <c r="T53" t="n">
-        <v>88.11277136637459</v>
+        <v>78.10288723529897</v>
       </c>
       <c r="U53" t="n">
-        <v>0.1980724590705717</v>
+        <v>0.1039408990230568</v>
       </c>
       <c r="V53" t="n">
-        <v>-0.06782369344194555</v>
+        <v>-0.005365325605295936</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1353941551388278</v>
+        <v>0.9199975739801524</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0906012028107611</v>
+        <v>0.128177728673079</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01243749189867379</v>
+        <v>0.1828085206516951</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9992563600661917</v>
+        <v>0.02192027041608222</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6230725982437687</v>
+        <v>0.5770315084193608</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5472872961717072</v>
+        <v>0.1213817712479903</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9323029507569824</v>
+        <v>0.03061189738300599</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9984451341234312</v>
+        <v>0.0008535825657482497</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9995730238314328</v>
+        <v>0.0004222671487903245</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9968035951522924</v>
+        <v>9.384698455508684e-05</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9823020116008159</v>
+        <v>0.8813555557319126</v>
       </c>
       <c r="L54" t="n">
-        <v>0.8620484707878415</v>
+        <v>0.1406937886597172</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9943204139567201</v>
+        <v>0.2034549476470163</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7423908282949765</v>
+        <v>0.03301833980470466</v>
       </c>
       <c r="O54" t="n">
-        <v>0.003604819013425749</v>
+        <v>0.005913849642659214</v>
       </c>
       <c r="P54" t="n">
-        <v>0.02683211351183787</v>
+        <v>0.1262229775720216</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3779625803004872</v>
+        <v>0.8429803727377126</v>
       </c>
       <c r="R54" t="n">
-        <v>0.002364099553302236</v>
+        <v>0.001632949525077076</v>
       </c>
       <c r="S54" t="n">
-        <v>100.1392201648687</v>
+        <v>83.23518858252417</v>
       </c>
       <c r="T54" t="n">
-        <v>92.86183679691062</v>
+        <v>78.11483720243163</v>
       </c>
       <c r="U54" t="n">
-        <v>0.2565513308427452</v>
+        <v>0.1039713613214363</v>
       </c>
       <c r="V54" t="n">
-        <v>-0.06943006832108101</v>
+        <v>-0.002841388713000038</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.998660743650139</v>
+        <v>0.9819267051014324</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9999153257786514</v>
+        <v>0.9904660129198228</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02281412822033156</v>
+        <v>0.02284289301103905</v>
       </c>
       <c r="D55" t="n">
-        <v>0.005373913724577182</v>
+        <v>0.5120446384316748</v>
       </c>
       <c r="E55" t="n">
-        <v>0.999334910004121</v>
+        <v>0.238060588019522</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3075649688482304</v>
+        <v>0.5399289500578918</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06461734491043614</v>
+        <v>0.1374003714617218</v>
       </c>
       <c r="H55" t="n">
-        <v>0.003493580015580519</v>
+        <v>0.001526011733090907</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01656574619308543</v>
+        <v>0.001100946342527433</v>
       </c>
       <c r="J55" t="n">
-        <v>0.002595083976969947</v>
+        <v>0.0006553556221273163</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1585668322023137</v>
+        <v>0.6639893157416374</v>
       </c>
       <c r="L55" t="n">
-        <v>0.005902975466297809</v>
+        <v>0.7748535531049221</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06170905984592578</v>
+        <v>0.3801484995852848</v>
       </c>
       <c r="N55" t="n">
-        <v>0.9967312014837019</v>
+        <v>0.8125393541332607</v>
       </c>
       <c r="O55" t="n">
-        <v>0.01704729116622094</v>
+        <v>0.01429006750406659</v>
       </c>
       <c r="P55" t="n">
-        <v>0.122073236413511</v>
+        <v>0.1825136820531143</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7380426213208202</v>
+        <v>0.9322962814741937</v>
       </c>
       <c r="R55" t="n">
-        <v>0.001528463013395084</v>
+        <v>0.001598121432761936</v>
       </c>
       <c r="S55" t="n">
-        <v>88.6038262091564</v>
+        <v>86.89014880457422</v>
       </c>
       <c r="T55" t="n">
-        <v>79.22828280669816</v>
+        <v>78.66545881315652</v>
       </c>
       <c r="U55" t="n">
-        <v>0.1047286980575637</v>
+        <v>0.104041323823317</v>
       </c>
       <c r="V55" t="n">
-        <v>-0.03455171715634079</v>
+        <v>-0.01450309989498611</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9972958933304922</v>
+        <v>0.9908654359159322</v>
       </c>
       <c r="B56" t="n">
-        <v>0.998356935648637</v>
+        <v>0.9984437422671547</v>
       </c>
       <c r="C56" t="n">
-        <v>0.009144695206733848</v>
+        <v>0.05672362674882893</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0001409859201800979</v>
+        <v>0.2272257301631729</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9982569266102673</v>
+        <v>0.5807704939374967</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4595978916182631</v>
+        <v>0.2369144680566999</v>
       </c>
       <c r="G56" t="n">
-        <v>0.984853977553233</v>
+        <v>0.015617552607454</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1799299838376592</v>
+        <v>0.002480490126423526</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9974574290764848</v>
+        <v>0.0004014419267815697</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9990386182158522</v>
+        <v>0.005682695485952407</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9083959382049573</v>
+        <v>0.7404673179307701</v>
       </c>
       <c r="L56" t="n">
-        <v>0.00527319420626249</v>
+        <v>0.8437227348136997</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9992309588122734</v>
+        <v>0.06072223948896585</v>
       </c>
       <c r="N56" t="n">
-        <v>0.999632321646024</v>
+        <v>0.7040150312791732</v>
       </c>
       <c r="O56" t="n">
-        <v>0.06776503759544006</v>
+        <v>0.01415321240177734</v>
       </c>
       <c r="P56" t="n">
-        <v>0.1919905026192136</v>
+        <v>0.1295920421697765</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6001733396733933</v>
+        <v>0.8711799074765018</v>
       </c>
       <c r="R56" t="n">
-        <v>0.001709129834967652</v>
+        <v>0.001554277706759888</v>
       </c>
       <c r="S56" t="n">
-        <v>98.38714401971031</v>
+        <v>85.45284726504693</v>
       </c>
       <c r="T56" t="n">
-        <v>88.47611004702743</v>
+        <v>78.40605918312782</v>
       </c>
       <c r="U56" t="n">
-        <v>0.2020384681206089</v>
+        <v>0.1042342765904739</v>
       </c>
       <c r="V56" t="n">
-        <v>-0.07477819690737898</v>
+        <v>-0.002932498423889575</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9969190948038935</v>
+        <v>0.9802854773092079</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9989315349791932</v>
+        <v>0.9558196985731205</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02275620547055832</v>
+        <v>0.2929246140489411</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0003436507443220418</v>
+        <v>0.6272669532788938</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9998895430842184</v>
+        <v>0.05237575500876139</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3916113170089406</v>
+        <v>0.1765956152817458</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05629697772788</v>
+        <v>0.06411325918355854</v>
       </c>
       <c r="H57" t="n">
-        <v>0.768513914325907</v>
+        <v>0.003489200843582347</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9882344977623649</v>
+        <v>0.001015736006819045</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9793721330496779</v>
+        <v>0.0004840070629542735</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9890287982584445</v>
+        <v>0.7175576959716876</v>
       </c>
       <c r="L57" t="n">
-        <v>0.009498081906884758</v>
+        <v>0.8444957790627713</v>
       </c>
       <c r="M57" t="n">
-        <v>0.9999138376866141</v>
+        <v>0.08655041812968345</v>
       </c>
       <c r="N57" t="n">
-        <v>0.9988068234691367</v>
+        <v>0.8668132013045238</v>
       </c>
       <c r="O57" t="n">
-        <v>0.05934677760516208</v>
+        <v>0.00613917425774773</v>
       </c>
       <c r="P57" t="n">
-        <v>0.11383158795803</v>
+        <v>0.6784234092822142</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5588815649171931</v>
+        <v>0.9059854004328445</v>
       </c>
       <c r="R57" t="n">
-        <v>0.001787785934967371</v>
+        <v>0.001654236949363125</v>
       </c>
       <c r="S57" t="n">
-        <v>99.95345719271539</v>
+        <v>84.57587333877134</v>
       </c>
       <c r="T57" t="n">
-        <v>91.28327111188945</v>
+        <v>78.25186323417917</v>
       </c>
       <c r="U57" t="n">
-        <v>0.2395462009556114</v>
+        <v>0.1041036016695018</v>
       </c>
       <c r="V57" t="n">
-        <v>-0.07662102414456784</v>
+        <v>-0.04156168207740886</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9770999494298992</v>
+        <v>0.9806314602042638</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1256055821061524</v>
+        <v>0.9557154778180779</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001449774528844844</v>
+        <v>0.05905269407071664</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9981827740780005</v>
+        <v>0.4670041903992387</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6577503573696515</v>
+        <v>0.05608300831443974</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5385402852820322</v>
+        <v>0.2156582730109432</v>
       </c>
       <c r="G58" t="n">
-        <v>0.925231195234831</v>
+        <v>0.1374564476138814</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9997092709722031</v>
+        <v>0.0005986617778181848</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9992632089582991</v>
+        <v>7.554946604733154e-05</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9965357522300001</v>
+        <v>0.0004749378983955801</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9601197024139545</v>
+        <v>0.2532876052151317</v>
       </c>
       <c r="L58" t="n">
-        <v>0.703016852712795</v>
+        <v>0.7748535531049221</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9990280876664001</v>
+        <v>0.1006263534521388</v>
       </c>
       <c r="N58" t="n">
-        <v>0.7899464083422905</v>
+        <v>0.8670521304092091</v>
       </c>
       <c r="O58" t="n">
-        <v>0.009073575732977341</v>
+        <v>0.005897343035941937</v>
       </c>
       <c r="P58" t="n">
-        <v>0.04025397878355082</v>
+        <v>0.0995916185876054</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.403427416776861</v>
+        <v>0.8991845708647452</v>
       </c>
       <c r="R58" t="n">
-        <v>0.002065014973461106</v>
+        <v>0.001610866506507238</v>
       </c>
       <c r="S58" t="n">
-        <v>101.0398684078187</v>
+        <v>84.92018374285716</v>
       </c>
       <c r="T58" t="n">
-        <v>92.82506501378944</v>
+        <v>78.25207546582097</v>
       </c>
       <c r="U58" t="n">
-        <v>0.2565964409925908</v>
+        <v>0.1039634718896194</v>
       </c>
       <c r="V58" t="n">
-        <v>-0.07768335487233499</v>
+        <v>0.003021705979558004</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9993327999958034</v>
+        <v>0.9794482036317341</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01842547133979303</v>
+        <v>0.9831949556376409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001633157896806283</v>
+        <v>0.02687354322838775</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9895324238895046</v>
+        <v>0.03100408792281203</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5144209280654759</v>
+        <v>0.7503688267283095</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3987979868950224</v>
+        <v>0.08590087386975119</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9271501352187979</v>
+        <v>0.1405763223075872</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9989407112943669</v>
+        <v>0.0008752081475158731</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9996127737380186</v>
+        <v>0.00123539820089067</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9967626143220849</v>
+        <v>0.002714225593648915</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9625959557234436</v>
+        <v>0.689817813415279</v>
       </c>
       <c r="L59" t="n">
-        <v>0.8546323232564905</v>
+        <v>0.8254429141024816</v>
       </c>
       <c r="M59" t="n">
-        <v>0.987930833712951</v>
+        <v>0.3315367792738938</v>
       </c>
       <c r="N59" t="n">
-        <v>0.7954994171559107</v>
+        <v>0.6716575284404029</v>
       </c>
       <c r="O59" t="n">
-        <v>0.004155752923813955</v>
+        <v>4.132323766648655e-05</v>
       </c>
       <c r="P59" t="n">
-        <v>0.02987480229023535</v>
+        <v>0.06077182569452452</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.4125892966269689</v>
+        <v>0.8473134823955333</v>
       </c>
       <c r="R59" t="n">
-        <v>0.001974010482943308</v>
+        <v>0.001531449736485903</v>
       </c>
       <c r="S59" t="n">
-        <v>100.8075036952395</v>
+        <v>86.67999262462459</v>
       </c>
       <c r="T59" t="n">
-        <v>92.69701586672309</v>
+        <v>78.77604832837564</v>
       </c>
       <c r="U59" t="n">
-        <v>0.2565838350031265</v>
+        <v>0.104097649592492</v>
       </c>
       <c r="V59" t="n">
-        <v>-0.07233611581429579</v>
+        <v>0.01472242460799639</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.999862254874168</v>
+        <v>0.7991760775833763</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9985703044360894</v>
+        <v>0.8490497501057974</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02538148321476005</v>
+        <v>0.04279095509632968</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00035041772570213</v>
+        <v>0.5164713410973332</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9998611872837221</v>
+        <v>0.09579613425675508</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4543520084793912</v>
+        <v>0.2529548378882523</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9806991962986379</v>
+        <v>0.02703828040946609</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02037761950127923</v>
+        <v>0.0007463735565396666</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9974494804128353</v>
+        <v>0.001576111477348238</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9990386862891748</v>
+        <v>0.0003420433472136949</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9907528401805479</v>
+        <v>0.8860980172026798</v>
       </c>
       <c r="L60" t="n">
-        <v>0.005502640607252413</v>
+        <v>0.8249628818599432</v>
       </c>
       <c r="M60" t="n">
-        <v>0.9979358523487837</v>
+        <v>0.09769056428699407</v>
       </c>
       <c r="N60" t="n">
-        <v>0.9995849857374494</v>
+        <v>0.6700456993113477</v>
       </c>
       <c r="O60" t="n">
-        <v>0.06747672535219187</v>
+        <v>0.005249593889460981</v>
       </c>
       <c r="P60" t="n">
-        <v>0.2145141743971284</v>
+        <v>0.1550779035422921</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6150960312318081</v>
+        <v>0.8933426225136633</v>
       </c>
       <c r="R60" t="n">
-        <v>0.001687623817695568</v>
+        <v>0.001632248000441028</v>
       </c>
       <c r="S60" t="n">
-        <v>97.67449815432354</v>
+        <v>84.23136247707075</v>
       </c>
       <c r="T60" t="n">
-        <v>87.63285749624707</v>
+        <v>78.26005973771888</v>
       </c>
       <c r="U60" t="n">
-        <v>0.1913624056148451</v>
+        <v>0.1040187737781895</v>
       </c>
       <c r="V60" t="n">
-        <v>-0.07336623949856691</v>
+        <v>0.01870439271780767</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9367072573232342</v>
+        <v>0.9219851588362175</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1890026279841412</v>
+        <v>0.1272477820799534</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001477176801017503</v>
+        <v>0.1523522002442268</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9892850762041447</v>
+        <v>0.4686840898747518</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6540850209150822</v>
+        <v>0.1024097179562905</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3203675969050387</v>
+        <v>0.6307672653665388</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8926825439296014</v>
+        <v>0.0266694831660603</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9984281410215167</v>
+        <v>0.0006958642593912602</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9997231215811864</v>
+        <v>7.537821323144701e-05</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9941414238617445</v>
+        <v>0.0001134669859604414</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9733668006296072</v>
+        <v>0.8701696685805966</v>
       </c>
       <c r="L61" t="n">
-        <v>0.7030137275144486</v>
+        <v>0.8428464659092081</v>
       </c>
       <c r="M61" t="n">
-        <v>0.9998367061901062</v>
+        <v>0.2078706232784521</v>
       </c>
       <c r="N61" t="n">
-        <v>0.7946355022654102</v>
+        <v>0.01800730332695977</v>
       </c>
       <c r="O61" t="n">
-        <v>0.02604768220719585</v>
+        <v>0.004646862570778532</v>
       </c>
       <c r="P61" t="n">
-        <v>0.1896064044687439</v>
+        <v>0.1262629602393918</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.3981754771268431</v>
+        <v>0.841325416299314</v>
       </c>
       <c r="R61" t="n">
-        <v>0.002078064964065595</v>
+        <v>0.001592634263055911</v>
       </c>
       <c r="S61" t="n">
-        <v>100.9519771486461</v>
+        <v>83.15274903779114</v>
       </c>
       <c r="T61" t="n">
-        <v>92.81073572170166</v>
+        <v>78.29707014952415</v>
       </c>
       <c r="U61" t="n">
-        <v>0.2563841340216003</v>
+        <v>0.1039537086329366</v>
       </c>
       <c r="V61" t="n">
-        <v>-0.07937660202190169</v>
+        <v>-0.003114644085001412</v>
       </c>
     </row>
   </sheetData>
